--- a/inst/template/features.dictionary.xlsx
+++ b/inst/template/features.dictionary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guow4\AppData\Local\Temp\scp43828\vf\users\guow4\project0\GGIR\postGGIR\postGGIR_compile\v2\mMARCH.AC\inst\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guow4\AppData\Local\Temp\scp10095\vf\users\guow4\project0\GGIR\postGGIR\postGGIR_compile\v2\mMARCH.AC\inst\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4819516-E737-4FB1-A66C-FF3D8E92EC06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA9146C0-0211-4CB1-B7FE-6C287B3D6671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-34725" yWindow="3090" windowWidth="32655" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dictionary" sheetId="4" r:id="rId1"/>
@@ -1033,66 +1033,6 @@
     <t>PC10_S</t>
   </si>
   <si>
-    <t xml:space="preserve">1st principal component score from day-level functional principal component analysis (FPCA). </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2nd principal component score from day-level functional principal component analysis (FPCA). </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3rd principal component score from day-level functional principal component analysis (FPCA). </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4th principal component score from day-level functional principal component analysis (FPCA). </t>
-  </si>
-  <si>
-    <t xml:space="preserve">5th principal component score from day-level functional principal component analysis (FPCA). </t>
-  </si>
-  <si>
-    <t xml:space="preserve">6th principal component score from day-level functional principal component analysis (FPCA). </t>
-  </si>
-  <si>
-    <t xml:space="preserve">7th principal component score from day-level functional principal component analysis (FPCA). </t>
-  </si>
-  <si>
-    <t xml:space="preserve">8th principal component score from day-level functional principal component analysis (FPCA). </t>
-  </si>
-  <si>
-    <t xml:space="preserve">9th principal component score from day-level functional principal component analysis (FPCA). </t>
-  </si>
-  <si>
-    <t xml:space="preserve">10th principal component score from day-level functional principal component analysis (FPCA). </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1st principal component score from subject-level functional principal component analysis (FPCA). </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2nd principal component score from subject-level functional principal component analysis (FPCA). </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3rd principal component score from subject-level functional principal component analysis (FPCA). </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4th principal component score from subject-level functional principal component analysis (FPCA). </t>
-  </si>
-  <si>
-    <t xml:space="preserve">5th principal component score from subject-level functional principal component analysis (FPCA). </t>
-  </si>
-  <si>
-    <t xml:space="preserve">6th principal component score from subject-level functional principal component analysis (FPCA). </t>
-  </si>
-  <si>
-    <t xml:space="preserve">7th principal component score from subject-level functional principal component analysis (FPCA). </t>
-  </si>
-  <si>
-    <t xml:space="preserve">8th principal component score from subject-level functional principal component analysis (FPCA). </t>
-  </si>
-  <si>
-    <t xml:space="preserve">9th principal component score from subject-level functional principal component analysis (FPCA). </t>
-  </si>
-  <si>
-    <t xml:space="preserve">10th principal component score from subject-level functional principal component analysis (FPCA). </t>
-  </si>
-  <si>
     <t>minimum_ext</t>
   </si>
   <si>
@@ -1373,6 +1313,66 @@
   </si>
   <si>
     <t>Acrophase is the time of day of the peak in the unit of the time (hours) from extended cosinor model by using log-transformed data.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1st principal component score from day-level functional principal component analysis (FPCA) using log-transformed data. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2nd principal component score from day-level functional principal component analysis (FPCA) using log-transformed data. . </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3rd principal component score from day-level functional principal component analysis (FPCA) using log-transformed data.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4th principal component score from day-level functional principal component analysis (FPCA) using log-transformed data.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5th principal component score from day-level functional principal component analysis (FPCA) using log-transformed data. </t>
+  </si>
+  <si>
+    <t>6th principal component score from day-level functional principal component analysis (FPCA) log-transformed data.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7th principal component score from day-level functional principal component analysis (FPCA) log-transformed data. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8th principal component score from day-level functional principal component analysis (FPCA) log-transformed data. </t>
+  </si>
+  <si>
+    <t>9th principal component score from day-level functional principal component analysis (FPCA) log-transformed data.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10th principal component score from day-level functional principal component analysis (FPCA) log-transformed data. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1st principal component score from subject-level functional principal component analysis (FPCA)  log-transformed data. </t>
+  </si>
+  <si>
+    <t>2nd principal component score from subject-level functional principal component analysis (FPCA)  log-transformed data.</t>
+  </si>
+  <si>
+    <t>3rd principal component score from subject-level functional principal component analysis (FPCA)  log-transformed data.</t>
+  </si>
+  <si>
+    <t>4th principal component score from subject-level functional principal component analysis (FPCA) log-transformed data.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5th principal component score from subject-level functional principal component analysis (FPCA) log-transformed data. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6th principal component score from subject-level functional principal component analysis (FPCA) log-transformed data. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7th principal component score from subject-level functional principal component analysis (FPCA) log-transformed data. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8th principal component score from subject-level functional principal component analysis (FPCA) log-transformed data. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">9th principal component score from subject-level functional principal component analysis (FPCA) log-transformed data. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10th principal component score from subject-level functional principal component analysis (FPCA) log-transformed data. </t>
   </si>
 </sst>
 </file>
@@ -2460,8 +2460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90AFE03C-6801-4995-8DC4-E01E63AE412B}">
   <dimension ref="A1:L202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="I1" sqref="A1:I1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A184" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="C213" sqref="C213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5065,10 +5065,10 @@
         <v>47</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>354</v>
+        <v>334</v>
       </c>
       <c r="C139" s="32" t="s">
-        <v>390</v>
+        <v>370</v>
       </c>
       <c r="D139" s="2" t="s">
         <v>191</v>
@@ -5083,10 +5083,10 @@
         <v>47</v>
       </c>
       <c r="B140" s="10" t="s">
-        <v>355</v>
+        <v>335</v>
       </c>
       <c r="C140" s="32" t="s">
-        <v>444</v>
+        <v>424</v>
       </c>
       <c r="D140" s="2" t="s">
         <v>191</v>
@@ -5101,10 +5101,10 @@
         <v>47</v>
       </c>
       <c r="B141" s="10" t="s">
-        <v>356</v>
+        <v>336</v>
       </c>
       <c r="C141" s="32" t="s">
-        <v>385</v>
+        <v>365</v>
       </c>
       <c r="D141" s="2" t="s">
         <v>191</v>
@@ -5119,10 +5119,10 @@
         <v>47</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>357</v>
+        <v>337</v>
       </c>
       <c r="C142" s="32" t="s">
-        <v>386</v>
+        <v>366</v>
       </c>
       <c r="D142" s="2" t="s">
         <v>191</v>
@@ -5137,10 +5137,10 @@
         <v>47</v>
       </c>
       <c r="B143" s="10" t="s">
-        <v>358</v>
+        <v>338</v>
       </c>
       <c r="C143" s="32" t="s">
-        <v>446</v>
+        <v>426</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>191</v>
@@ -5155,10 +5155,10 @@
         <v>47</v>
       </c>
       <c r="B144" s="10" t="s">
-        <v>359</v>
+        <v>339</v>
       </c>
       <c r="C144" s="32" t="s">
-        <v>391</v>
+        <v>371</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>191</v>
@@ -5173,10 +5173,10 @@
         <v>47</v>
       </c>
       <c r="B145" s="10" t="s">
-        <v>360</v>
+        <v>340</v>
       </c>
       <c r="C145" s="32" t="s">
-        <v>387</v>
+        <v>367</v>
       </c>
       <c r="D145" s="2" t="s">
         <v>191</v>
@@ -5191,10 +5191,10 @@
         <v>47</v>
       </c>
       <c r="B146" s="10" t="s">
-        <v>361</v>
+        <v>341</v>
       </c>
       <c r="C146" s="32" t="s">
-        <v>388</v>
+        <v>368</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>191</v>
@@ -5209,10 +5209,10 @@
         <v>47</v>
       </c>
       <c r="B147" s="10" t="s">
-        <v>362</v>
+        <v>342</v>
       </c>
       <c r="C147" s="32" t="s">
-        <v>389</v>
+        <v>369</v>
       </c>
       <c r="D147" s="2" t="s">
         <v>191</v>
@@ -5227,10 +5227,10 @@
         <v>47</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>392</v>
+        <v>372</v>
       </c>
       <c r="C148" s="32" t="s">
-        <v>401</v>
+        <v>381</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>191</v>
@@ -5245,10 +5245,10 @@
         <v>47</v>
       </c>
       <c r="B149" s="10" t="s">
-        <v>393</v>
+        <v>373</v>
       </c>
       <c r="C149" s="32" t="s">
-        <v>445</v>
+        <v>425</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>191</v>
@@ -5263,10 +5263,10 @@
         <v>47</v>
       </c>
       <c r="B150" s="10" t="s">
-        <v>394</v>
+        <v>374</v>
       </c>
       <c r="C150" s="32" t="s">
-        <v>441</v>
+        <v>421</v>
       </c>
       <c r="D150" s="2" t="s">
         <v>191</v>
@@ -5281,10 +5281,10 @@
         <v>47</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>395</v>
+        <v>375</v>
       </c>
       <c r="C151" s="32" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="D151" s="2" t="s">
         <v>191</v>
@@ -5299,10 +5299,10 @@
         <v>47</v>
       </c>
       <c r="B152" s="10" t="s">
-        <v>396</v>
+        <v>376</v>
       </c>
       <c r="C152" s="32" t="s">
-        <v>447</v>
+        <v>427</v>
       </c>
       <c r="D152" s="2" t="s">
         <v>191</v>
@@ -5317,10 +5317,10 @@
         <v>47</v>
       </c>
       <c r="B153" s="10" t="s">
-        <v>397</v>
+        <v>377</v>
       </c>
       <c r="C153" s="32" t="s">
-        <v>443</v>
+        <v>423</v>
       </c>
       <c r="D153" s="2" t="s">
         <v>191</v>
@@ -5335,10 +5335,10 @@
         <v>47</v>
       </c>
       <c r="B154" s="10" t="s">
-        <v>398</v>
+        <v>378</v>
       </c>
       <c r="C154" s="32" t="s">
-        <v>402</v>
+        <v>382</v>
       </c>
       <c r="D154" s="2" t="s">
         <v>191</v>
@@ -5353,10 +5353,10 @@
         <v>47</v>
       </c>
       <c r="B155" s="10" t="s">
-        <v>399</v>
+        <v>379</v>
       </c>
       <c r="C155" s="32" t="s">
-        <v>403</v>
+        <v>383</v>
       </c>
       <c r="D155" s="2" t="s">
         <v>191</v>
@@ -5371,10 +5371,10 @@
         <v>47</v>
       </c>
       <c r="B156" s="10" t="s">
-        <v>400</v>
+        <v>380</v>
       </c>
       <c r="C156" s="32" t="s">
-        <v>404</v>
+        <v>384</v>
       </c>
       <c r="D156" s="2" t="s">
         <v>191</v>
@@ -5392,7 +5392,7 @@
         <v>27</v>
       </c>
       <c r="C157" s="42" t="s">
-        <v>334</v>
+        <v>428</v>
       </c>
       <c r="D157" s="2" t="s">
         <v>191</v>
@@ -5410,7 +5410,7 @@
         <v>28</v>
       </c>
       <c r="C158" s="42" t="s">
-        <v>335</v>
+        <v>429</v>
       </c>
       <c r="D158" s="2" t="s">
         <v>191</v>
@@ -5428,7 +5428,7 @@
         <v>29</v>
       </c>
       <c r="C159" s="42" t="s">
-        <v>336</v>
+        <v>430</v>
       </c>
       <c r="D159" s="2" t="s">
         <v>191</v>
@@ -5446,7 +5446,7 @@
         <v>30</v>
       </c>
       <c r="C160" s="42" t="s">
-        <v>337</v>
+        <v>431</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>191</v>
@@ -5464,7 +5464,7 @@
         <v>60</v>
       </c>
       <c r="C161" s="42" t="s">
-        <v>338</v>
+        <v>432</v>
       </c>
       <c r="D161" s="2" t="s">
         <v>191</v>
@@ -5482,7 +5482,7 @@
         <v>61</v>
       </c>
       <c r="C162" s="42" t="s">
-        <v>339</v>
+        <v>433</v>
       </c>
       <c r="D162" s="2" t="s">
         <v>191</v>
@@ -5500,7 +5500,7 @@
         <v>62</v>
       </c>
       <c r="C163" s="42" t="s">
-        <v>340</v>
+        <v>434</v>
       </c>
       <c r="D163" s="2" t="s">
         <v>191</v>
@@ -5518,7 +5518,7 @@
         <v>63</v>
       </c>
       <c r="C164" s="42" t="s">
-        <v>341</v>
+        <v>435</v>
       </c>
       <c r="D164" s="2" t="s">
         <v>191</v>
@@ -5536,7 +5536,7 @@
         <v>64</v>
       </c>
       <c r="C165" s="42" t="s">
-        <v>342</v>
+        <v>436</v>
       </c>
       <c r="D165" s="2" t="s">
         <v>191</v>
@@ -5554,7 +5554,7 @@
         <v>65</v>
       </c>
       <c r="C166" s="46" t="s">
-        <v>343</v>
+        <v>437</v>
       </c>
       <c r="D166" s="15" t="s">
         <v>191</v>
@@ -5590,7 +5590,7 @@
         <v>290</v>
       </c>
       <c r="C168" s="32" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="D168" s="2" t="s">
         <v>191</v>
@@ -5677,10 +5677,10 @@
         <v>47</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>405</v>
+        <v>385</v>
       </c>
       <c r="C173" s="32" t="s">
-        <v>424</v>
+        <v>404</v>
       </c>
       <c r="D173" s="2" t="s">
         <v>191</v>
@@ -5695,10 +5695,10 @@
         <v>47</v>
       </c>
       <c r="B174" s="10" t="s">
-        <v>406</v>
+        <v>386</v>
       </c>
       <c r="C174" s="32" t="s">
-        <v>425</v>
+        <v>405</v>
       </c>
       <c r="D174" s="2" t="s">
         <v>191</v>
@@ -5713,10 +5713,10 @@
         <v>47</v>
       </c>
       <c r="B175" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="C175" s="32" t="s">
         <v>407</v>
-      </c>
-      <c r="C175" s="32" t="s">
-        <v>427</v>
       </c>
       <c r="D175" s="2" t="s">
         <v>191</v>
@@ -5731,10 +5731,10 @@
         <v>47</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>408</v>
+        <v>388</v>
       </c>
       <c r="C176" s="32" t="s">
-        <v>426</v>
+        <v>406</v>
       </c>
       <c r="D176" s="2" t="s">
         <v>191</v>
@@ -5749,10 +5749,10 @@
         <v>47</v>
       </c>
       <c r="B177" s="10" t="s">
-        <v>409</v>
+        <v>389</v>
       </c>
       <c r="C177" s="32" t="s">
-        <v>435</v>
+        <v>415</v>
       </c>
       <c r="D177" s="2" t="s">
         <v>191</v>
@@ -5767,10 +5767,10 @@
         <v>47</v>
       </c>
       <c r="B178" s="10" t="s">
-        <v>410</v>
+        <v>390</v>
       </c>
       <c r="C178" s="32" t="s">
-        <v>428</v>
+        <v>408</v>
       </c>
       <c r="D178" s="2" t="s">
         <v>191</v>
@@ -5785,10 +5785,10 @@
         <v>47</v>
       </c>
       <c r="B179" s="10" t="s">
-        <v>411</v>
+        <v>391</v>
       </c>
       <c r="C179" s="32" t="s">
-        <v>429</v>
+        <v>409</v>
       </c>
       <c r="D179" s="2" t="s">
         <v>191</v>
@@ -5803,10 +5803,10 @@
         <v>47</v>
       </c>
       <c r="B180" s="10" t="s">
-        <v>412</v>
+        <v>392</v>
       </c>
       <c r="C180" s="32" t="s">
-        <v>430</v>
+        <v>410</v>
       </c>
       <c r="D180" s="2" t="s">
         <v>191</v>
@@ -5821,10 +5821,10 @@
         <v>47</v>
       </c>
       <c r="B181" s="10" t="s">
-        <v>413</v>
+        <v>393</v>
       </c>
       <c r="C181" s="32" t="s">
-        <v>389</v>
+        <v>369</v>
       </c>
       <c r="D181" s="2" t="s">
         <v>191</v>
@@ -5839,10 +5839,10 @@
         <v>47</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>414</v>
+        <v>394</v>
       </c>
       <c r="C182" s="32" t="s">
-        <v>431</v>
+        <v>411</v>
       </c>
       <c r="D182" s="2" t="s">
         <v>191</v>
@@ -5857,10 +5857,10 @@
         <v>47</v>
       </c>
       <c r="B183" s="10" t="s">
-        <v>415</v>
+        <v>395</v>
       </c>
       <c r="C183" s="32" t="s">
-        <v>439</v>
+        <v>419</v>
       </c>
       <c r="D183" s="2" t="s">
         <v>191</v>
@@ -5875,10 +5875,10 @@
         <v>47</v>
       </c>
       <c r="B184" s="10" t="s">
-        <v>416</v>
+        <v>396</v>
       </c>
       <c r="C184" s="32" t="s">
-        <v>440</v>
+        <v>420</v>
       </c>
       <c r="D184" s="2" t="s">
         <v>191</v>
@@ -5893,10 +5893,10 @@
         <v>47</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>417</v>
+        <v>397</v>
       </c>
       <c r="C185" s="32" t="s">
-        <v>438</v>
+        <v>418</v>
       </c>
       <c r="D185" s="2" t="s">
         <v>191</v>
@@ -5911,10 +5911,10 @@
         <v>47</v>
       </c>
       <c r="B186" s="10" t="s">
-        <v>418</v>
+        <v>398</v>
       </c>
       <c r="C186" s="32" t="s">
-        <v>437</v>
+        <v>417</v>
       </c>
       <c r="D186" s="2" t="s">
         <v>191</v>
@@ -5929,10 +5929,10 @@
         <v>47</v>
       </c>
       <c r="B187" s="10" t="s">
-        <v>419</v>
+        <v>399</v>
       </c>
       <c r="C187" s="32" t="s">
-        <v>436</v>
+        <v>416</v>
       </c>
       <c r="D187" s="2" t="s">
         <v>191</v>
@@ -5947,10 +5947,10 @@
         <v>47</v>
       </c>
       <c r="B188" s="10" t="s">
-        <v>420</v>
+        <v>400</v>
       </c>
       <c r="C188" s="32" t="s">
-        <v>432</v>
+        <v>412</v>
       </c>
       <c r="D188" s="2" t="s">
         <v>191</v>
@@ -5965,10 +5965,10 @@
         <v>47</v>
       </c>
       <c r="B189" s="10" t="s">
-        <v>421</v>
+        <v>401</v>
       </c>
       <c r="C189" s="32" t="s">
-        <v>433</v>
+        <v>413</v>
       </c>
       <c r="D189" s="2" t="s">
         <v>191</v>
@@ -5983,10 +5983,10 @@
         <v>47</v>
       </c>
       <c r="B190" s="10" t="s">
-        <v>422</v>
+        <v>402</v>
       </c>
       <c r="C190" s="32" t="s">
-        <v>434</v>
+        <v>414</v>
       </c>
       <c r="D190" s="2" t="s">
         <v>191</v>
@@ -6004,7 +6004,7 @@
         <v>324</v>
       </c>
       <c r="C191" s="42" t="s">
-        <v>344</v>
+        <v>438</v>
       </c>
       <c r="D191" s="2" t="s">
         <v>191</v>
@@ -6022,7 +6022,7 @@
         <v>325</v>
       </c>
       <c r="C192" s="42" t="s">
-        <v>345</v>
+        <v>439</v>
       </c>
       <c r="D192" s="2" t="s">
         <v>191</v>
@@ -6040,7 +6040,7 @@
         <v>326</v>
       </c>
       <c r="C193" s="42" t="s">
-        <v>346</v>
+        <v>440</v>
       </c>
       <c r="D193" s="2" t="s">
         <v>191</v>
@@ -6058,7 +6058,7 @@
         <v>327</v>
       </c>
       <c r="C194" s="42" t="s">
-        <v>347</v>
+        <v>441</v>
       </c>
       <c r="D194" s="2" t="s">
         <v>191</v>
@@ -6076,7 +6076,7 @@
         <v>328</v>
       </c>
       <c r="C195" s="42" t="s">
-        <v>348</v>
+        <v>442</v>
       </c>
       <c r="D195" s="2" t="s">
         <v>191</v>
@@ -6094,7 +6094,7 @@
         <v>329</v>
       </c>
       <c r="C196" s="42" t="s">
-        <v>349</v>
+        <v>443</v>
       </c>
       <c r="D196" s="2" t="s">
         <v>191</v>
@@ -6112,7 +6112,7 @@
         <v>330</v>
       </c>
       <c r="C197" s="42" t="s">
-        <v>350</v>
+        <v>444</v>
       </c>
       <c r="D197" s="2" t="s">
         <v>191</v>
@@ -6130,7 +6130,7 @@
         <v>331</v>
       </c>
       <c r="C198" s="42" t="s">
-        <v>351</v>
+        <v>445</v>
       </c>
       <c r="D198" s="2" t="s">
         <v>191</v>
@@ -6148,7 +6148,7 @@
         <v>332</v>
       </c>
       <c r="C199" s="42" t="s">
-        <v>352</v>
+        <v>446</v>
       </c>
       <c r="D199" s="2" t="s">
         <v>191</v>
@@ -6165,8 +6165,8 @@
       <c r="B200" s="30" t="s">
         <v>333</v>
       </c>
-      <c r="C200" s="46" t="s">
-        <v>353</v>
+      <c r="C200" s="42" t="s">
+        <v>447</v>
       </c>
       <c r="D200" s="15" t="s">
         <v>191</v>
@@ -6208,117 +6208,117 @@
   <sheetData>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>364</v>
+        <v>344</v>
       </c>
       <c r="B6" t="s">
-        <v>365</v>
+        <v>345</v>
       </c>
       <c r="C6" t="s">
-        <v>366</v>
+        <v>346</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>364</v>
+        <v>344</v>
       </c>
       <c r="B7" t="s">
-        <v>367</v>
+        <v>347</v>
       </c>
       <c r="C7" t="s">
-        <v>368</v>
+        <v>348</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>364</v>
+        <v>344</v>
       </c>
       <c r="B8" t="s">
-        <v>369</v>
+        <v>349</v>
       </c>
       <c r="C8" t="s">
-        <v>370</v>
+        <v>350</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>364</v>
+        <v>344</v>
       </c>
       <c r="B9" t="s">
-        <v>371</v>
+        <v>351</v>
       </c>
       <c r="C9" t="s">
-        <v>372</v>
+        <v>352</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>364</v>
+        <v>344</v>
       </c>
       <c r="B10" t="s">
-        <v>373</v>
+        <v>353</v>
       </c>
       <c r="C10" t="s">
-        <v>374</v>
+        <v>354</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>364</v>
+        <v>344</v>
       </c>
       <c r="B11" t="s">
-        <v>375</v>
+        <v>355</v>
       </c>
       <c r="C11" t="s">
-        <v>376</v>
+        <v>356</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>364</v>
+        <v>344</v>
       </c>
       <c r="B12" t="s">
-        <v>377</v>
+        <v>357</v>
       </c>
       <c r="C12" t="s">
-        <v>378</v>
+        <v>358</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>364</v>
+        <v>344</v>
       </c>
       <c r="B13" t="s">
-        <v>379</v>
+        <v>359</v>
       </c>
       <c r="C13" t="s">
-        <v>380</v>
+        <v>360</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>364</v>
+        <v>344</v>
       </c>
       <c r="B14" t="s">
-        <v>381</v>
+        <v>361</v>
       </c>
       <c r="C14" t="s">
-        <v>382</v>
+        <v>362</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>344</v>
+      </c>
+      <c r="B15" t="s">
+        <v>363</v>
+      </c>
+      <c r="C15" t="s">
         <v>364</v>
-      </c>
-      <c r="B15" t="s">
-        <v>383</v>
-      </c>
-      <c r="C15" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>363</v>
+        <v>343</v>
       </c>
     </row>
   </sheetData>

--- a/inst/template/features.dictionary.xlsx
+++ b/inst/template/features.dictionary.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guow4\AppData\Local\Temp\scp10095\vf\users\guow4\project0\GGIR\postGGIR\postGGIR_compile\v2\mMARCH.AC\inst\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guow4\AppData\Local\Temp\scp27052\vf\users\guow4\project0\GGIR\postGGIR\postGGIR_compile\v2\mMARCH.AC\inst\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA9146C0-0211-4CB1-B7FE-6C287B3D6671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A257DF-16C2-41B5-9926-3D4695ED36A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-34725" yWindow="3090" windowWidth="32655" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29595" yWindow="-900" windowWidth="23475" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dictionary" sheetId="4" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="428">
   <si>
     <t>acc_wake</t>
   </si>
@@ -1060,72 +1059,6 @@
     <t>MESOR_ext</t>
   </si>
   <si>
-    <t>#'</t>
-  </si>
-  <si>
-    <t>#' \item</t>
-  </si>
-  <si>
-    <t>minimum}</t>
-  </si>
-  <si>
-    <t>Minimum value of the of the function.}</t>
-  </si>
-  <si>
-    <t>amp}</t>
-  </si>
-  <si>
-    <t>amplitude, a measure of half the extend of predictable variation within a cycle. This represents the highest activity one can achieve.}</t>
-  </si>
-  <si>
-    <t>alpha}</t>
-  </si>
-  <si>
-    <t>It determines whether the peaks of the curve are wider than the troughs: when alpha is small, the troughs are narrow and the peaks are wide; when alpha is large, the troughs are wide and the peaks are narrow.}</t>
-  </si>
-  <si>
-    <t>beta}</t>
-  </si>
-  <si>
-    <t>It dertermines whether the transformed function rises and falls more steeply than the cosine curve: large values of beta produce curves that are nearly square waves.}</t>
-  </si>
-  <si>
-    <t>acrotime}</t>
-  </si>
-  <si>
-    <t>acrophase is the time of day of the peak in the unit of the time (hours)}</t>
-  </si>
-  <si>
-    <t>F_pseudo}</t>
-  </si>
-  <si>
-    <t>Measure the improvement of the fit obtained by the non-linear estimation of the transformed cosine model}</t>
-  </si>
-  <si>
-    <t>UpMesor}</t>
-  </si>
-  <si>
-    <t>Time of day of switch from low to high activity. Represents the timing of the rest- activity rhythm. Lower (earlier) values indicate increase in activity earlier in the day and suggest a more advanced circadian phase.}</t>
-  </si>
-  <si>
-    <t>DownMesor}</t>
-  </si>
-  <si>
-    <t>Time of day of switch from high to low activity. Represents the timing of the rest-activity rhythm. Lower (earlier) values indicate decline in activity earlier in the day, suggesting a more advanced circadian phase.}</t>
-  </si>
-  <si>
-    <t>MESOR}</t>
-  </si>
-  <si>
-    <t>A measure analogous to the MESOR of the cosine model (or half the deflection of the curve) can be obtained from mes=min+amp/2. However, it goes through the middle of the peak, and is therefore not equal to the MESOR of the cosine model, which is the mean of the data.}</t>
-  </si>
-  <si>
-    <t>ndays}</t>
-  </si>
-  <si>
-    <t>Number of days modeled.}</t>
-  </si>
-  <si>
     <t>It determines whether the peaks of the curve are wider than the troughs: when alpha is small, the troughs are narrow and the peaks are wide; when alpha is large, the troughs are wide and the peaks are narrow from extended cosinor model.</t>
   </si>
   <si>
@@ -1373,6 +1306,12 @@
   </si>
   <si>
     <t xml:space="preserve">10th principal component score from subject-level functional principal component analysis (FPCA) log-transformed data. </t>
+  </si>
+  <si>
+    <t>GGIR3.2.0_Variable</t>
+  </si>
+  <si>
+    <t>GGIR3.2.0_Source</t>
   </si>
 </sst>
 </file>
@@ -2458,24 +2397,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90AFE03C-6801-4995-8DC4-E01E63AE412B}">
-  <dimension ref="A1:L202"/>
+  <dimension ref="A1:N202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A184" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="C213" sqref="C213"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55:D74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="27.140625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="136.85546875" style="49" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" style="8" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="8"/>
+    <col min="1" max="1" width="11.5546875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="27.109375" style="8" customWidth="1"/>
+    <col min="3" max="3" width="136.88671875" style="49" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="8" customWidth="1"/>
+    <col min="5" max="7" width="18.33203125" style="8" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" style="8" customWidth="1"/>
+    <col min="9" max="9" width="9.109375" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -2492,10 +2431,16 @@
         <v>71</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>45</v>
       </c>
@@ -2511,16 +2456,18 @@
       <c r="E2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="24" t="s">
+        <v>123</v>
+      </c>
       <c r="J2" s="20"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>45</v>
       </c>
@@ -2536,16 +2483,18 @@
       <c r="E3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="24" t="s">
+        <v>123</v>
+      </c>
       <c r="J3" s="20"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>45</v>
       </c>
@@ -2561,16 +2510,18 @@
       <c r="E4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="24" t="s">
+        <v>123</v>
+      </c>
       <c r="J4" s="20"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>45</v>
       </c>
@@ -2586,16 +2537,18 @@
       <c r="E5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="24" t="s">
+        <v>123</v>
+      </c>
       <c r="J5" s="20"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>45</v>
       </c>
@@ -2611,19 +2564,21 @@
       <c r="E6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="G6" s="25" t="s">
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="I6" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
       <c r="J6" s="20"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>45</v>
       </c>
@@ -2639,19 +2594,21 @@
       <c r="E7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="G7" s="8" t="s">
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="I7" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
       <c r="J7" s="20"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>45</v>
       </c>
@@ -2667,16 +2624,18 @@
       <c r="E8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="24" t="s">
+        <v>123</v>
+      </c>
       <c r="J8" s="20"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>45</v>
       </c>
@@ -2692,16 +2651,18 @@
       <c r="E9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="24" t="s">
+        <v>123</v>
+      </c>
       <c r="J9" s="20"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>45</v>
       </c>
@@ -2717,16 +2678,18 @@
       <c r="E10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="24" t="s">
+        <v>123</v>
+      </c>
       <c r="J10" s="20"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>46</v>
       </c>
@@ -2740,16 +2703,18 @@
         <v>191</v>
       </c>
       <c r="E11" s="3"/>
-      <c r="F11" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="24" t="s">
+        <v>123</v>
+      </c>
       <c r="J11" s="20"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>46</v>
       </c>
@@ -2763,11 +2728,13 @@
         <v>191</v>
       </c>
       <c r="E12" s="3"/>
-      <c r="F12" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>46</v>
       </c>
@@ -2781,17 +2748,19 @@
         <v>191</v>
       </c>
       <c r="E13" s="3"/>
-      <c r="F13" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="24" t="s">
+        <v>123</v>
+      </c>
       <c r="I13" s="20"/>
       <c r="J13" s="20"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>46</v>
       </c>
@@ -2805,11 +2774,13 @@
         <v>191</v>
       </c>
       <c r="E14" s="3"/>
-      <c r="F14" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>46</v>
       </c>
@@ -2823,11 +2794,13 @@
         <v>191</v>
       </c>
       <c r="E15" s="9"/>
-      <c r="F15" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>46</v>
       </c>
@@ -2841,11 +2814,13 @@
         <v>191</v>
       </c>
       <c r="E16" s="9"/>
-      <c r="F16" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>46</v>
       </c>
@@ -2859,11 +2834,13 @@
         <v>191</v>
       </c>
       <c r="E17" s="9"/>
-      <c r="F17" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>46</v>
       </c>
@@ -2877,11 +2854,13 @@
         <v>191</v>
       </c>
       <c r="E18" s="9"/>
-      <c r="F18" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>46</v>
       </c>
@@ -2895,11 +2874,13 @@
         <v>191</v>
       </c>
       <c r="E19" s="9"/>
-      <c r="F19" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>46</v>
       </c>
@@ -2913,11 +2894,13 @@
         <v>191</v>
       </c>
       <c r="E20" s="9"/>
-      <c r="F20" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>46</v>
       </c>
@@ -2931,11 +2914,13 @@
         <v>191</v>
       </c>
       <c r="E21" s="9"/>
-      <c r="F21" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>46</v>
       </c>
@@ -2949,11 +2934,13 @@
         <v>191</v>
       </c>
       <c r="E22" s="9"/>
-      <c r="F22" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>46</v>
       </c>
@@ -2967,11 +2954,13 @@
         <v>191</v>
       </c>
       <c r="E23" s="9"/>
-      <c r="F23" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>46</v>
       </c>
@@ -2985,11 +2974,13 @@
         <v>191</v>
       </c>
       <c r="E24" s="9"/>
-      <c r="F24" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>46</v>
       </c>
@@ -3003,11 +2994,13 @@
         <v>191</v>
       </c>
       <c r="E25" s="9"/>
-      <c r="F25" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>46</v>
       </c>
@@ -3021,11 +3014,13 @@
         <v>191</v>
       </c>
       <c r="E26" s="9"/>
-      <c r="F26" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>46</v>
       </c>
@@ -3039,11 +3034,13 @@
         <v>191</v>
       </c>
       <c r="E27" s="9"/>
-      <c r="F27" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>46</v>
       </c>
@@ -3057,11 +3054,13 @@
         <v>191</v>
       </c>
       <c r="E28" s="9"/>
-      <c r="F28" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>46</v>
       </c>
@@ -3075,11 +3074,13 @@
         <v>191</v>
       </c>
       <c r="E29" s="9"/>
-      <c r="F29" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>46</v>
       </c>
@@ -3093,11 +3094,13 @@
         <v>191</v>
       </c>
       <c r="E30" s="9"/>
-      <c r="F30" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>46</v>
       </c>
@@ -3111,11 +3114,13 @@
         <v>191</v>
       </c>
       <c r="E31" s="9"/>
-      <c r="F31" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>46</v>
       </c>
@@ -3129,11 +3134,13 @@
         <v>191</v>
       </c>
       <c r="E32" s="9"/>
-      <c r="F32" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>46</v>
       </c>
@@ -3147,11 +3154,13 @@
         <v>191</v>
       </c>
       <c r="E33" s="9"/>
-      <c r="F33" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>46</v>
       </c>
@@ -3165,11 +3174,13 @@
         <v>191</v>
       </c>
       <c r="E34" s="9"/>
-      <c r="F34" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>46</v>
       </c>
@@ -3183,11 +3194,13 @@
         <v>191</v>
       </c>
       <c r="E35" s="9"/>
-      <c r="F35" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>46</v>
       </c>
@@ -3201,11 +3214,13 @@
         <v>191</v>
       </c>
       <c r="E36" s="9"/>
-      <c r="F36" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>46</v>
       </c>
@@ -3219,11 +3234,13 @@
         <v>191</v>
       </c>
       <c r="E37" s="9"/>
-      <c r="F37" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>46</v>
       </c>
@@ -3237,11 +3254,13 @@
         <v>191</v>
       </c>
       <c r="E38" s="9"/>
-      <c r="F38" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>46</v>
       </c>
@@ -3255,11 +3274,13 @@
         <v>191</v>
       </c>
       <c r="E39" s="9"/>
-      <c r="F39" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>46</v>
       </c>
@@ -3273,11 +3294,13 @@
         <v>191</v>
       </c>
       <c r="E40" s="9"/>
-      <c r="F40" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>46</v>
       </c>
@@ -3291,11 +3314,13 @@
         <v>191</v>
       </c>
       <c r="E41" s="9"/>
-      <c r="F41" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>46</v>
       </c>
@@ -3309,11 +3334,13 @@
         <v>191</v>
       </c>
       <c r="E42" s="9"/>
-      <c r="F42" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>46</v>
       </c>
@@ -3327,11 +3354,13 @@
         <v>191</v>
       </c>
       <c r="E43" s="9"/>
-      <c r="F43" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>46</v>
       </c>
@@ -3345,11 +3374,13 @@
         <v>191</v>
       </c>
       <c r="E44" s="9"/>
-      <c r="F44" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>46</v>
       </c>
@@ -3363,11 +3394,13 @@
         <v>191</v>
       </c>
       <c r="E45" s="9"/>
-      <c r="F45" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>46</v>
       </c>
@@ -3381,11 +3414,13 @@
         <v>191</v>
       </c>
       <c r="E46" s="9"/>
-      <c r="F46" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>46</v>
       </c>
@@ -3399,11 +3434,13 @@
         <v>191</v>
       </c>
       <c r="E47" s="9"/>
-      <c r="F47" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>46</v>
       </c>
@@ -3417,11 +3454,13 @@
         <v>191</v>
       </c>
       <c r="E48" s="9"/>
-      <c r="F48" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>46</v>
       </c>
@@ -3435,11 +3474,13 @@
         <v>191</v>
       </c>
       <c r="E49" s="9"/>
-      <c r="F49" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>46</v>
       </c>
@@ -3453,11 +3494,13 @@
         <v>191</v>
       </c>
       <c r="E50" s="9"/>
-      <c r="F50" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>46</v>
       </c>
@@ -3471,11 +3514,13 @@
         <v>191</v>
       </c>
       <c r="E51" s="9"/>
-      <c r="F51" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>46</v>
       </c>
@@ -3489,11 +3534,13 @@
         <v>191</v>
       </c>
       <c r="E52" s="9"/>
-      <c r="F52" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>46</v>
       </c>
@@ -3507,11 +3554,13 @@
         <v>191</v>
       </c>
       <c r="E53" s="9"/>
-      <c r="F53" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>46</v>
       </c>
@@ -3525,11 +3574,13 @@
         <v>191</v>
       </c>
       <c r="E54" s="9"/>
-      <c r="F54" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>46</v>
       </c>
@@ -3545,11 +3596,13 @@
       <c r="E55" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F55" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>46</v>
       </c>
@@ -3565,11 +3618,13 @@
       <c r="E56" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F56" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
         <v>46</v>
       </c>
@@ -3585,11 +3640,13 @@
       <c r="E57" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F57" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
         <v>46</v>
       </c>
@@ -3605,11 +3662,13 @@
       <c r="E58" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F58" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
         <v>46</v>
       </c>
@@ -3623,11 +3682,13 @@
         <v>189</v>
       </c>
       <c r="E59" s="3"/>
-      <c r="F59" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
         <v>46</v>
       </c>
@@ -3641,11 +3702,13 @@
         <v>189</v>
       </c>
       <c r="E60" s="3"/>
-      <c r="F60" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
         <v>46</v>
       </c>
@@ -3659,11 +3722,13 @@
         <v>189</v>
       </c>
       <c r="E61" s="3"/>
-      <c r="F61" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
         <v>46</v>
       </c>
@@ -3677,11 +3742,13 @@
         <v>189</v>
       </c>
       <c r="E62" s="3"/>
-      <c r="F62" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
         <v>46</v>
       </c>
@@ -3695,11 +3762,13 @@
         <v>189</v>
       </c>
       <c r="E63" s="3"/>
-      <c r="F63" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
         <v>46</v>
       </c>
@@ -3713,11 +3782,13 @@
         <v>189</v>
       </c>
       <c r="E64" s="3"/>
-      <c r="F64" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
+      <c r="H64" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
         <v>46</v>
       </c>
@@ -3731,11 +3802,13 @@
         <v>189</v>
       </c>
       <c r="E65" s="3"/>
-      <c r="F65" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
         <v>46</v>
       </c>
@@ -3749,11 +3822,13 @@
         <v>189</v>
       </c>
       <c r="E66" s="3"/>
-      <c r="F66" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F66" s="3"/>
+      <c r="G66" s="3"/>
+      <c r="H66" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
         <v>46</v>
       </c>
@@ -3767,11 +3842,13 @@
         <v>189</v>
       </c>
       <c r="E67" s="3"/>
-      <c r="F67" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F67" s="3"/>
+      <c r="G67" s="3"/>
+      <c r="H67" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
         <v>46</v>
       </c>
@@ -3785,11 +3862,13 @@
         <v>189</v>
       </c>
       <c r="E68" s="3"/>
-      <c r="F68" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F68" s="3"/>
+      <c r="G68" s="3"/>
+      <c r="H68" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
         <v>46</v>
       </c>
@@ -3803,11 +3882,13 @@
         <v>189</v>
       </c>
       <c r="E69" s="3"/>
-      <c r="F69" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
         <v>46</v>
       </c>
@@ -3821,11 +3902,13 @@
         <v>189</v>
       </c>
       <c r="E70" s="3"/>
-      <c r="F70" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
         <v>46</v>
       </c>
@@ -3841,11 +3924,13 @@
       <c r="E71" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F71" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
         <v>46</v>
       </c>
@@ -3861,11 +3946,13 @@
       <c r="E72" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F72" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
+      <c r="H72" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
         <v>46</v>
       </c>
@@ -3881,11 +3968,13 @@
       <c r="E73" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F73" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F73" s="3"/>
+      <c r="G73" s="3"/>
+      <c r="H73" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
         <v>46</v>
       </c>
@@ -3901,11 +3990,13 @@
       <c r="E74" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F74" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F74" s="3"/>
+      <c r="G74" s="3"/>
+      <c r="H74" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>47</v>
       </c>
@@ -3919,14 +4010,20 @@
         <v>189</v>
       </c>
       <c r="E75" s="2"/>
-      <c r="F75" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="G75" s="8" t="s">
+      <c r="F75" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="H75" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="I75" s="8" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>47</v>
       </c>
@@ -3940,11 +4037,17 @@
         <v>189</v>
       </c>
       <c r="E76" s="2"/>
-      <c r="F76" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F76" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="H76" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>47</v>
       </c>
@@ -3958,11 +4061,17 @@
         <v>189</v>
       </c>
       <c r="E77" s="2"/>
-      <c r="F77" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F77" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="H77" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>47</v>
       </c>
@@ -3976,11 +4085,17 @@
         <v>189</v>
       </c>
       <c r="E78" s="2"/>
-      <c r="F78" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F78" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="H78" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>47</v>
       </c>
@@ -3994,11 +4109,17 @@
         <v>189</v>
       </c>
       <c r="E79" s="2"/>
-      <c r="F79" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F79" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="H79" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>47</v>
       </c>
@@ -4012,11 +4133,13 @@
         <v>191</v>
       </c>
       <c r="E80" s="10"/>
-      <c r="F80" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F80" s="10"/>
+      <c r="G80" s="10"/>
+      <c r="H80" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>47</v>
       </c>
@@ -4030,11 +4153,13 @@
         <v>191</v>
       </c>
       <c r="E81" s="10"/>
-      <c r="F81" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F81" s="10"/>
+      <c r="G81" s="10"/>
+      <c r="H81" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>47</v>
       </c>
@@ -4048,11 +4173,13 @@
         <v>191</v>
       </c>
       <c r="E82" s="10"/>
-      <c r="F82" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F82" s="10"/>
+      <c r="G82" s="10"/>
+      <c r="H82" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>47</v>
       </c>
@@ -4066,11 +4193,13 @@
         <v>191</v>
       </c>
       <c r="E83" s="10"/>
-      <c r="F83" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F83" s="10"/>
+      <c r="G83" s="10"/>
+      <c r="H83" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>47</v>
       </c>
@@ -4084,11 +4213,13 @@
         <v>191</v>
       </c>
       <c r="E84" s="10"/>
-      <c r="F84" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F84" s="10"/>
+      <c r="G84" s="10"/>
+      <c r="H84" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>47</v>
       </c>
@@ -4102,11 +4233,13 @@
         <v>191</v>
       </c>
       <c r="E85" s="10"/>
-      <c r="F85" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F85" s="10"/>
+      <c r="G85" s="10"/>
+      <c r="H85" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>47</v>
       </c>
@@ -4120,11 +4253,13 @@
         <v>191</v>
       </c>
       <c r="E86" s="10"/>
-      <c r="F86" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F86" s="10"/>
+      <c r="G86" s="10"/>
+      <c r="H86" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>47</v>
       </c>
@@ -4138,11 +4273,13 @@
         <v>191</v>
       </c>
       <c r="E87" s="10"/>
-      <c r="F87" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F87" s="10"/>
+      <c r="G87" s="10"/>
+      <c r="H87" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>47</v>
       </c>
@@ -4156,11 +4293,13 @@
         <v>191</v>
       </c>
       <c r="E88" s="10"/>
-      <c r="F88" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F88" s="10"/>
+      <c r="G88" s="10"/>
+      <c r="H88" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>47</v>
       </c>
@@ -4174,11 +4313,13 @@
         <v>191</v>
       </c>
       <c r="E89" s="10"/>
-      <c r="F89" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F89" s="10"/>
+      <c r="G89" s="10"/>
+      <c r="H89" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>47</v>
       </c>
@@ -4192,11 +4333,13 @@
         <v>191</v>
       </c>
       <c r="E90" s="10"/>
-      <c r="F90" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F90" s="10"/>
+      <c r="G90" s="10"/>
+      <c r="H90" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>47</v>
       </c>
@@ -4210,11 +4353,13 @@
         <v>191</v>
       </c>
       <c r="E91" s="10"/>
-      <c r="F91" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F91" s="10"/>
+      <c r="G91" s="10"/>
+      <c r="H91" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>47</v>
       </c>
@@ -4228,11 +4373,13 @@
         <v>191</v>
       </c>
       <c r="E92" s="10"/>
-      <c r="F92" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F92" s="10"/>
+      <c r="G92" s="10"/>
+      <c r="H92" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>47</v>
       </c>
@@ -4246,11 +4393,13 @@
         <v>191</v>
       </c>
       <c r="E93" s="10"/>
-      <c r="F93" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F93" s="10"/>
+      <c r="G93" s="10"/>
+      <c r="H93" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>47</v>
       </c>
@@ -4264,11 +4413,13 @@
         <v>191</v>
       </c>
       <c r="E94" s="10"/>
-      <c r="F94" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F94" s="10"/>
+      <c r="G94" s="10"/>
+      <c r="H94" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>47</v>
       </c>
@@ -4282,11 +4433,13 @@
         <v>191</v>
       </c>
       <c r="E95" s="10"/>
-      <c r="F95" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F95" s="10"/>
+      <c r="G95" s="10"/>
+      <c r="H95" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>47</v>
       </c>
@@ -4300,11 +4453,13 @@
         <v>191</v>
       </c>
       <c r="E96" s="10"/>
-      <c r="F96" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F96" s="10"/>
+      <c r="G96" s="10"/>
+      <c r="H96" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>47</v>
       </c>
@@ -4318,11 +4473,13 @@
         <v>191</v>
       </c>
       <c r="E97" s="10"/>
-      <c r="F97" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F97" s="10"/>
+      <c r="G97" s="10"/>
+      <c r="H97" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>47</v>
       </c>
@@ -4336,11 +4493,13 @@
         <v>191</v>
       </c>
       <c r="E98" s="10"/>
-      <c r="F98" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F98" s="10"/>
+      <c r="G98" s="10"/>
+      <c r="H98" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>47</v>
       </c>
@@ -4354,11 +4513,13 @@
         <v>191</v>
       </c>
       <c r="E99" s="10"/>
-      <c r="F99" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F99" s="10"/>
+      <c r="G99" s="10"/>
+      <c r="H99" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>47</v>
       </c>
@@ -4372,11 +4533,13 @@
         <v>191</v>
       </c>
       <c r="E100" s="10"/>
-      <c r="F100" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F100" s="10"/>
+      <c r="G100" s="10"/>
+      <c r="H100" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>47</v>
       </c>
@@ -4390,11 +4553,13 @@
         <v>191</v>
       </c>
       <c r="E101" s="10"/>
-      <c r="F101" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F101" s="10"/>
+      <c r="G101" s="10"/>
+      <c r="H101" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>47</v>
       </c>
@@ -4408,11 +4573,13 @@
         <v>191</v>
       </c>
       <c r="E102" s="10"/>
-      <c r="F102" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F102" s="10"/>
+      <c r="G102" s="10"/>
+      <c r="H102" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>47</v>
       </c>
@@ -4426,11 +4593,13 @@
         <v>191</v>
       </c>
       <c r="E103" s="10"/>
-      <c r="F103" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F103" s="10"/>
+      <c r="G103" s="10"/>
+      <c r="H103" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>47</v>
       </c>
@@ -4444,11 +4613,13 @@
         <v>191</v>
       </c>
       <c r="E104" s="10"/>
-      <c r="F104" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F104" s="10"/>
+      <c r="G104" s="10"/>
+      <c r="H104" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>47</v>
       </c>
@@ -4462,11 +4633,13 @@
         <v>191</v>
       </c>
       <c r="E105" s="10"/>
-      <c r="F105" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F105" s="10"/>
+      <c r="G105" s="10"/>
+      <c r="H105" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>47</v>
       </c>
@@ -4480,11 +4653,13 @@
         <v>191</v>
       </c>
       <c r="E106" s="10"/>
-      <c r="F106" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F106" s="10"/>
+      <c r="G106" s="10"/>
+      <c r="H106" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>47</v>
       </c>
@@ -4498,11 +4673,13 @@
         <v>191</v>
       </c>
       <c r="E107" s="10"/>
-      <c r="F107" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F107" s="10"/>
+      <c r="G107" s="10"/>
+      <c r="H107" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>47</v>
       </c>
@@ -4516,11 +4693,13 @@
         <v>191</v>
       </c>
       <c r="E108" s="10"/>
-      <c r="F108" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F108" s="10"/>
+      <c r="G108" s="10"/>
+      <c r="H108" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>47</v>
       </c>
@@ -4534,11 +4713,13 @@
         <v>191</v>
       </c>
       <c r="E109" s="10"/>
-      <c r="F109" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F109" s="10"/>
+      <c r="G109" s="10"/>
+      <c r="H109" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>47</v>
       </c>
@@ -4552,11 +4733,13 @@
         <v>191</v>
       </c>
       <c r="E110" s="10"/>
-      <c r="F110" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F110" s="10"/>
+      <c r="G110" s="10"/>
+      <c r="H110" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>47</v>
       </c>
@@ -4570,11 +4753,13 @@
         <v>191</v>
       </c>
       <c r="E111" s="10"/>
-      <c r="F111" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F111" s="10"/>
+      <c r="G111" s="10"/>
+      <c r="H111" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>47</v>
       </c>
@@ -4588,11 +4773,13 @@
         <v>191</v>
       </c>
       <c r="E112" s="10"/>
-      <c r="F112" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F112" s="10"/>
+      <c r="G112" s="10"/>
+      <c r="H112" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>47</v>
       </c>
@@ -4606,11 +4793,13 @@
         <v>191</v>
       </c>
       <c r="E113" s="10"/>
-      <c r="F113" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F113" s="10"/>
+      <c r="G113" s="10"/>
+      <c r="H113" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>47</v>
       </c>
@@ -4624,11 +4813,13 @@
         <v>191</v>
       </c>
       <c r="E114" s="10"/>
-      <c r="F114" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F114" s="10"/>
+      <c r="G114" s="10"/>
+      <c r="H114" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>47</v>
       </c>
@@ -4642,11 +4833,13 @@
         <v>191</v>
       </c>
       <c r="E115" s="10"/>
-      <c r="F115" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F115" s="10"/>
+      <c r="G115" s="10"/>
+      <c r="H115" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>47</v>
       </c>
@@ -4660,11 +4853,13 @@
         <v>191</v>
       </c>
       <c r="E116" s="10"/>
-      <c r="F116" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F116" s="10"/>
+      <c r="G116" s="10"/>
+      <c r="H116" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>47</v>
       </c>
@@ -4678,11 +4873,13 @@
         <v>191</v>
       </c>
       <c r="E117" s="10"/>
-      <c r="F117" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F117" s="10"/>
+      <c r="G117" s="10"/>
+      <c r="H117" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>47</v>
       </c>
@@ -4696,11 +4893,13 @@
         <v>191</v>
       </c>
       <c r="E118" s="10"/>
-      <c r="F118" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F118" s="10"/>
+      <c r="G118" s="10"/>
+      <c r="H118" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>47</v>
       </c>
@@ -4714,11 +4913,13 @@
         <v>191</v>
       </c>
       <c r="E119" s="10"/>
-      <c r="F119" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F119" s="10"/>
+      <c r="G119" s="10"/>
+      <c r="H119" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>47</v>
       </c>
@@ -4732,11 +4933,13 @@
         <v>191</v>
       </c>
       <c r="E120" s="10"/>
-      <c r="F120" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F120" s="10"/>
+      <c r="G120" s="10"/>
+      <c r="H120" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>47</v>
       </c>
@@ -4750,11 +4953,13 @@
         <v>191</v>
       </c>
       <c r="E121" s="10"/>
-      <c r="F121" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F121" s="10"/>
+      <c r="G121" s="10"/>
+      <c r="H121" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>47</v>
       </c>
@@ -4768,11 +4973,13 @@
         <v>191</v>
       </c>
       <c r="E122" s="10"/>
-      <c r="F122" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F122" s="10"/>
+      <c r="G122" s="10"/>
+      <c r="H122" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>47</v>
       </c>
@@ -4786,11 +4993,13 @@
         <v>191</v>
       </c>
       <c r="E123" s="10"/>
-      <c r="F123" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F123" s="10"/>
+      <c r="G123" s="10"/>
+      <c r="H123" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>47</v>
       </c>
@@ -4804,11 +5013,13 @@
         <v>191</v>
       </c>
       <c r="E124" s="10"/>
-      <c r="F124" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F124" s="10"/>
+      <c r="G124" s="10"/>
+      <c r="H124" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>47</v>
       </c>
@@ -4822,11 +5033,13 @@
         <v>191</v>
       </c>
       <c r="E125" s="10"/>
-      <c r="F125" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F125" s="10"/>
+      <c r="G125" s="10"/>
+      <c r="H125" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>47</v>
       </c>
@@ -4840,11 +5053,13 @@
         <v>191</v>
       </c>
       <c r="E126" s="10"/>
-      <c r="F126" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F126" s="10"/>
+      <c r="G126" s="10"/>
+      <c r="H126" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
         <v>47</v>
       </c>
@@ -4858,11 +5073,13 @@
         <v>191</v>
       </c>
       <c r="E127" s="10"/>
-      <c r="F127" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F127" s="10"/>
+      <c r="G127" s="10"/>
+      <c r="H127" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
         <v>47</v>
       </c>
@@ -4876,11 +5093,13 @@
         <v>191</v>
       </c>
       <c r="E128" s="2"/>
-      <c r="F128" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F128" s="2"/>
+      <c r="G128" s="2"/>
+      <c r="H128" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A129" s="15" t="s">
         <v>47</v>
       </c>
@@ -4894,11 +5113,13 @@
         <v>191</v>
       </c>
       <c r="E129" s="2"/>
-      <c r="F129" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F129" s="2"/>
+      <c r="G129" s="2"/>
+      <c r="H129" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" s="13" t="s">
         <v>47</v>
       </c>
@@ -4912,11 +5133,13 @@
         <v>191</v>
       </c>
       <c r="E130" s="2"/>
-      <c r="F130" s="26" t="s">
+      <c r="F130" s="2"/>
+      <c r="G130" s="2"/>
+      <c r="H130" s="26" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
         <v>47</v>
       </c>
@@ -4930,11 +5153,17 @@
         <v>190</v>
       </c>
       <c r="E131" s="2"/>
-      <c r="F131" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F131" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="H131" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
         <v>47</v>
       </c>
@@ -4948,11 +5177,17 @@
         <v>190</v>
       </c>
       <c r="E132" s="2"/>
-      <c r="F132" s="26" t="s">
+      <c r="F132" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="H132" s="26" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
         <v>47</v>
       </c>
@@ -4966,11 +5201,13 @@
         <v>191</v>
       </c>
       <c r="E133" s="2"/>
-      <c r="F133" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F133" s="2"/>
+      <c r="G133" s="2"/>
+      <c r="H133" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
         <v>47</v>
       </c>
@@ -4984,11 +5221,13 @@
         <v>191</v>
       </c>
       <c r="E134" s="10"/>
-      <c r="F134" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F134" s="10"/>
+      <c r="G134" s="10"/>
+      <c r="H134" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
         <v>47</v>
       </c>
@@ -5002,11 +5241,13 @@
         <v>191</v>
       </c>
       <c r="E135" s="10"/>
-      <c r="F135" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F135" s="10"/>
+      <c r="G135" s="10"/>
+      <c r="H135" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
         <v>47</v>
       </c>
@@ -5020,11 +5261,13 @@
         <v>191</v>
       </c>
       <c r="E136" s="2"/>
-      <c r="F136" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F136" s="2"/>
+      <c r="G136" s="2"/>
+      <c r="H136" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
         <v>47</v>
       </c>
@@ -5038,11 +5281,13 @@
         <v>191</v>
       </c>
       <c r="E137" s="10"/>
-      <c r="F137" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F137" s="10"/>
+      <c r="G137" s="10"/>
+      <c r="H137" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
         <v>47</v>
       </c>
@@ -5056,11 +5301,13 @@
         <v>191</v>
       </c>
       <c r="E138" s="10"/>
-      <c r="F138" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F138" s="10"/>
+      <c r="G138" s="10"/>
+      <c r="H138" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
         <v>47</v>
       </c>
@@ -5068,17 +5315,19 @@
         <v>334</v>
       </c>
       <c r="C139" s="32" t="s">
-        <v>370</v>
+        <v>348</v>
       </c>
       <c r="D139" s="2" t="s">
         <v>191</v>
       </c>
       <c r="E139" s="2"/>
-      <c r="F139" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F139" s="2"/>
+      <c r="G139" s="2"/>
+      <c r="H139" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
         <v>47</v>
       </c>
@@ -5086,17 +5335,19 @@
         <v>335</v>
       </c>
       <c r="C140" s="32" t="s">
-        <v>424</v>
+        <v>402</v>
       </c>
       <c r="D140" s="2" t="s">
         <v>191</v>
       </c>
       <c r="E140" s="10"/>
-      <c r="F140" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="F140" s="10"/>
+      <c r="G140" s="10"/>
+      <c r="H140" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
         <v>47</v>
       </c>
@@ -5104,17 +5355,19 @@
         <v>336</v>
       </c>
       <c r="C141" s="32" t="s">
-        <v>365</v>
+        <v>343</v>
       </c>
       <c r="D141" s="2" t="s">
         <v>191</v>
       </c>
       <c r="E141" s="10"/>
-      <c r="F141" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="F141" s="10"/>
+      <c r="G141" s="10"/>
+      <c r="H141" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
         <v>47</v>
       </c>
@@ -5122,17 +5375,19 @@
         <v>337</v>
       </c>
       <c r="C142" s="32" t="s">
-        <v>366</v>
+        <v>344</v>
       </c>
       <c r="D142" s="2" t="s">
         <v>191</v>
       </c>
       <c r="E142" s="2"/>
-      <c r="F142" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F142" s="2"/>
+      <c r="G142" s="2"/>
+      <c r="H142" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
         <v>47</v>
       </c>
@@ -5140,17 +5395,19 @@
         <v>338</v>
       </c>
       <c r="C143" s="32" t="s">
-        <v>426</v>
+        <v>404</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>191</v>
       </c>
       <c r="E143" s="10"/>
-      <c r="F143" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F143" s="10"/>
+      <c r="G143" s="10"/>
+      <c r="H143" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
         <v>47</v>
       </c>
@@ -5158,17 +5415,19 @@
         <v>339</v>
       </c>
       <c r="C144" s="32" t="s">
-        <v>371</v>
+        <v>349</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>191</v>
       </c>
       <c r="E144" s="10"/>
-      <c r="F144" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="F144" s="10"/>
+      <c r="G144" s="10"/>
+      <c r="H144" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
         <v>47</v>
       </c>
@@ -5176,17 +5435,19 @@
         <v>340</v>
       </c>
       <c r="C145" s="32" t="s">
-        <v>367</v>
+        <v>345</v>
       </c>
       <c r="D145" s="2" t="s">
         <v>191</v>
       </c>
       <c r="E145" s="10"/>
-      <c r="F145" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="F145" s="10"/>
+      <c r="G145" s="10"/>
+      <c r="H145" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
         <v>47</v>
       </c>
@@ -5194,17 +5455,19 @@
         <v>341</v>
       </c>
       <c r="C146" s="32" t="s">
-        <v>368</v>
+        <v>346</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>191</v>
       </c>
       <c r="E146" s="10"/>
-      <c r="F146" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" ht="36.75" x14ac:dyDescent="0.25">
+      <c r="F146" s="10"/>
+      <c r="G146" s="10"/>
+      <c r="H146" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
         <v>47</v>
       </c>
@@ -5212,179 +5475,199 @@
         <v>342</v>
       </c>
       <c r="C147" s="32" t="s">
-        <v>369</v>
+        <v>347</v>
       </c>
       <c r="D147" s="2" t="s">
         <v>191</v>
       </c>
       <c r="E147" s="10"/>
-      <c r="F147" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F147" s="10"/>
+      <c r="G147" s="10"/>
+      <c r="H147" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="C148" s="32" t="s">
-        <v>381</v>
+        <v>359</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>191</v>
       </c>
       <c r="E148" s="2"/>
-      <c r="F148" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="F148" s="2"/>
+      <c r="G148" s="2"/>
+      <c r="H148" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B149" s="10" t="s">
-        <v>373</v>
+        <v>351</v>
       </c>
       <c r="C149" s="32" t="s">
-        <v>425</v>
+        <v>403</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>191</v>
       </c>
       <c r="E149" s="10"/>
-      <c r="F149" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="F149" s="10"/>
+      <c r="G149" s="10"/>
+      <c r="H149" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B150" s="10" t="s">
-        <v>374</v>
+        <v>352</v>
       </c>
       <c r="C150" s="32" t="s">
-        <v>421</v>
+        <v>399</v>
       </c>
       <c r="D150" s="2" t="s">
         <v>191</v>
       </c>
       <c r="E150" s="10"/>
-      <c r="F150" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="F150" s="10"/>
+      <c r="G150" s="10"/>
+      <c r="H150" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>375</v>
+        <v>353</v>
       </c>
       <c r="C151" s="32" t="s">
-        <v>422</v>
+        <v>400</v>
       </c>
       <c r="D151" s="2" t="s">
         <v>191</v>
       </c>
       <c r="E151" s="2"/>
-      <c r="F151" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F151" s="2"/>
+      <c r="G151" s="2"/>
+      <c r="H151" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B152" s="10" t="s">
-        <v>376</v>
+        <v>354</v>
       </c>
       <c r="C152" s="32" t="s">
-        <v>427</v>
+        <v>405</v>
       </c>
       <c r="D152" s="2" t="s">
         <v>191</v>
       </c>
       <c r="E152" s="10"/>
-      <c r="F152" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F152" s="10"/>
+      <c r="G152" s="10"/>
+      <c r="H152" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B153" s="10" t="s">
-        <v>377</v>
+        <v>355</v>
       </c>
       <c r="C153" s="32" t="s">
-        <v>423</v>
+        <v>401</v>
       </c>
       <c r="D153" s="2" t="s">
         <v>191</v>
       </c>
       <c r="E153" s="10"/>
-      <c r="F153" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" ht="36.75" x14ac:dyDescent="0.25">
+      <c r="F153" s="10"/>
+      <c r="G153" s="10"/>
+      <c r="H153" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B154" s="10" t="s">
-        <v>378</v>
+        <v>356</v>
       </c>
       <c r="C154" s="32" t="s">
-        <v>382</v>
+        <v>360</v>
       </c>
       <c r="D154" s="2" t="s">
         <v>191</v>
       </c>
       <c r="E154" s="10"/>
-      <c r="F154" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="F154" s="10"/>
+      <c r="G154" s="10"/>
+      <c r="H154" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B155" s="10" t="s">
-        <v>379</v>
+        <v>357</v>
       </c>
       <c r="C155" s="32" t="s">
-        <v>383</v>
+        <v>361</v>
       </c>
       <c r="D155" s="2" t="s">
         <v>191</v>
       </c>
       <c r="E155" s="10"/>
-      <c r="F155" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" ht="36.75" x14ac:dyDescent="0.25">
+      <c r="F155" s="10"/>
+      <c r="G155" s="10"/>
+      <c r="H155" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B156" s="10" t="s">
-        <v>380</v>
+        <v>358</v>
       </c>
       <c r="C156" s="32" t="s">
-        <v>384</v>
+        <v>362</v>
       </c>
       <c r="D156" s="2" t="s">
         <v>191</v>
       </c>
       <c r="E156" s="10"/>
-      <c r="F156" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F156" s="10"/>
+      <c r="G156" s="10"/>
+      <c r="H156" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
         <v>47</v>
       </c>
@@ -5392,17 +5675,19 @@
         <v>27</v>
       </c>
       <c r="C157" s="42" t="s">
-        <v>428</v>
+        <v>406</v>
       </c>
       <c r="D157" s="2" t="s">
         <v>191</v>
       </c>
       <c r="E157" s="10"/>
-      <c r="F157" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F157" s="10"/>
+      <c r="G157" s="10"/>
+      <c r="H157" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
         <v>47</v>
       </c>
@@ -5410,17 +5695,19 @@
         <v>28</v>
       </c>
       <c r="C158" s="42" t="s">
-        <v>429</v>
+        <v>407</v>
       </c>
       <c r="D158" s="2" t="s">
         <v>191</v>
       </c>
       <c r="E158" s="10"/>
-      <c r="F158" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F158" s="10"/>
+      <c r="G158" s="10"/>
+      <c r="H158" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
         <v>47</v>
       </c>
@@ -5428,17 +5715,19 @@
         <v>29</v>
       </c>
       <c r="C159" s="42" t="s">
-        <v>430</v>
+        <v>408</v>
       </c>
       <c r="D159" s="2" t="s">
         <v>191</v>
       </c>
       <c r="E159" s="10"/>
-      <c r="F159" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F159" s="10"/>
+      <c r="G159" s="10"/>
+      <c r="H159" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
         <v>47</v>
       </c>
@@ -5446,17 +5735,19 @@
         <v>30</v>
       </c>
       <c r="C160" s="42" t="s">
-        <v>431</v>
+        <v>409</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>191</v>
       </c>
       <c r="E160" s="10"/>
-      <c r="F160" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F160" s="10"/>
+      <c r="G160" s="10"/>
+      <c r="H160" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
         <v>47</v>
       </c>
@@ -5464,17 +5755,19 @@
         <v>60</v>
       </c>
       <c r="C161" s="42" t="s">
-        <v>432</v>
+        <v>410</v>
       </c>
       <c r="D161" s="2" t="s">
         <v>191</v>
       </c>
       <c r="E161" s="10"/>
-      <c r="F161" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F161" s="10"/>
+      <c r="G161" s="10"/>
+      <c r="H161" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
         <v>47</v>
       </c>
@@ -5482,17 +5775,19 @@
         <v>61</v>
       </c>
       <c r="C162" s="42" t="s">
-        <v>433</v>
+        <v>411</v>
       </c>
       <c r="D162" s="2" t="s">
         <v>191</v>
       </c>
       <c r="E162" s="10"/>
-      <c r="F162" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F162" s="10"/>
+      <c r="G162" s="10"/>
+      <c r="H162" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
         <v>47</v>
       </c>
@@ -5500,17 +5795,19 @@
         <v>62</v>
       </c>
       <c r="C163" s="42" t="s">
-        <v>434</v>
+        <v>412</v>
       </c>
       <c r="D163" s="2" t="s">
         <v>191</v>
       </c>
       <c r="E163" s="10"/>
-      <c r="F163" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F163" s="10"/>
+      <c r="G163" s="10"/>
+      <c r="H163" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
         <v>47</v>
       </c>
@@ -5518,17 +5815,19 @@
         <v>63</v>
       </c>
       <c r="C164" s="42" t="s">
-        <v>435</v>
+        <v>413</v>
       </c>
       <c r="D164" s="2" t="s">
         <v>191</v>
       </c>
       <c r="E164" s="10"/>
-      <c r="F164" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F164" s="10"/>
+      <c r="G164" s="10"/>
+      <c r="H164" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
         <v>47</v>
       </c>
@@ -5536,17 +5835,19 @@
         <v>64</v>
       </c>
       <c r="C165" s="42" t="s">
-        <v>436</v>
+        <v>414</v>
       </c>
       <c r="D165" s="2" t="s">
         <v>191</v>
       </c>
       <c r="E165" s="10"/>
-      <c r="F165" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F165" s="10"/>
+      <c r="G165" s="10"/>
+      <c r="H165" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A166" s="15" t="s">
         <v>47</v>
       </c>
@@ -5554,17 +5855,19 @@
         <v>65</v>
       </c>
       <c r="C166" s="46" t="s">
-        <v>437</v>
+        <v>415</v>
       </c>
       <c r="D166" s="15" t="s">
         <v>191</v>
       </c>
       <c r="E166" s="30"/>
-      <c r="F166" s="31" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F166" s="30"/>
+      <c r="G166" s="30"/>
+      <c r="H166" s="31" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="14" t="s">
         <v>47</v>
       </c>
@@ -5578,11 +5881,13 @@
         <v>191</v>
       </c>
       <c r="E167" s="14"/>
-      <c r="F167" s="27" t="s">
+      <c r="F167" s="14"/>
+      <c r="G167" s="14"/>
+      <c r="H167" s="27" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="168" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
         <v>47</v>
       </c>
@@ -5590,17 +5895,19 @@
         <v>290</v>
       </c>
       <c r="C168" s="32" t="s">
-        <v>403</v>
+        <v>381</v>
       </c>
       <c r="D168" s="2" t="s">
         <v>191</v>
       </c>
       <c r="E168" s="10"/>
-      <c r="F168" s="26" t="s">
+      <c r="F168" s="10"/>
+      <c r="G168" s="10"/>
+      <c r="H168" s="26" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="169" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
         <v>47</v>
       </c>
@@ -5614,11 +5921,13 @@
         <v>191</v>
       </c>
       <c r="E169" s="10"/>
-      <c r="F169" s="26" t="s">
+      <c r="F169" s="10"/>
+      <c r="G169" s="10"/>
+      <c r="H169" s="26" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
         <v>47</v>
       </c>
@@ -5632,11 +5941,13 @@
         <v>191</v>
       </c>
       <c r="E170" s="2"/>
-      <c r="F170" s="26" t="s">
+      <c r="F170" s="2"/>
+      <c r="G170" s="2"/>
+      <c r="H170" s="26" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
         <v>47</v>
       </c>
@@ -5650,11 +5961,13 @@
         <v>191</v>
       </c>
       <c r="E171" s="10"/>
-      <c r="F171" s="26" t="s">
+      <c r="F171" s="10"/>
+      <c r="G171" s="10"/>
+      <c r="H171" s="26" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
         <v>47</v>
       </c>
@@ -5668,335 +5981,373 @@
         <v>191</v>
       </c>
       <c r="E172" s="10"/>
-      <c r="F172" s="26" t="s">
+      <c r="F172" s="10"/>
+      <c r="G172" s="10"/>
+      <c r="H172" s="26" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B173" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C173" s="32" t="s">
+        <v>382</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E173" s="2"/>
+      <c r="F173" s="2"/>
+      <c r="G173" s="2"/>
+      <c r="H173" s="26" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" ht="24.6" x14ac:dyDescent="0.3">
+      <c r="A174" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B174" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="C174" s="32" t="s">
+        <v>383</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E174" s="10"/>
+      <c r="F174" s="10"/>
+      <c r="G174" s="10"/>
+      <c r="H174" s="26" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" ht="24.6" x14ac:dyDescent="0.3">
+      <c r="A175" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B175" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="C175" s="32" t="s">
         <v>385</v>
       </c>
-      <c r="C173" s="32" t="s">
-        <v>404</v>
-      </c>
-      <c r="D173" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E173" s="2"/>
-      <c r="F173" s="26" t="s">
+      <c r="D175" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E175" s="10"/>
+      <c r="F175" s="10"/>
+      <c r="G175" s="10"/>
+      <c r="H175" s="26" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="174" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A174" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B174" s="10" t="s">
+    <row r="176" spans="1:8" ht="24.6" x14ac:dyDescent="0.3">
+      <c r="A176" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="C176" s="32" t="s">
+        <v>384</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E176" s="2"/>
+      <c r="F176" s="2"/>
+      <c r="G176" s="2"/>
+      <c r="H176" s="26" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A177" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B177" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="C177" s="32" t="s">
+        <v>393</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E177" s="10"/>
+      <c r="F177" s="10"/>
+      <c r="G177" s="10"/>
+      <c r="H177" s="26" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A178" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B178" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="C178" s="32" t="s">
         <v>386</v>
       </c>
-      <c r="C174" s="32" t="s">
-        <v>405</v>
-      </c>
-      <c r="D174" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E174" s="10"/>
-      <c r="F174" s="26" t="s">
+      <c r="D178" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E178" s="10"/>
+      <c r="F178" s="10"/>
+      <c r="G178" s="10"/>
+      <c r="H178" s="26" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="175" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A175" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B175" s="10" t="s">
+    <row r="179" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A179" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B179" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="C179" s="32" t="s">
         <v>387</v>
       </c>
-      <c r="C175" s="32" t="s">
-        <v>407</v>
-      </c>
-      <c r="D175" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E175" s="10"/>
-      <c r="F175" s="26" t="s">
+      <c r="D179" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E179" s="10"/>
+      <c r="F179" s="10"/>
+      <c r="G179" s="10"/>
+      <c r="H179" s="26" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="176" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A176" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B176" s="2" t="s">
+    <row r="180" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A180" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B180" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="C180" s="32" t="s">
         <v>388</v>
       </c>
-      <c r="C176" s="32" t="s">
-        <v>406</v>
-      </c>
-      <c r="D176" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E176" s="2"/>
-      <c r="F176" s="26" t="s">
+      <c r="D180" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E180" s="10"/>
+      <c r="F180" s="10"/>
+      <c r="G180" s="10"/>
+      <c r="H180" s="26" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A177" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B177" s="10" t="s">
+    <row r="181" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A181" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B181" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="C181" s="32" t="s">
+        <v>347</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E181" s="10"/>
+      <c r="F181" s="10"/>
+      <c r="G181" s="10"/>
+      <c r="H181" s="26" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A182" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="C182" s="32" t="s">
         <v>389</v>
       </c>
-      <c r="C177" s="32" t="s">
-        <v>415</v>
-      </c>
-      <c r="D177" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E177" s="10"/>
-      <c r="F177" s="26" t="s">
+      <c r="D182" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E182" s="2"/>
+      <c r="F182" s="2"/>
+      <c r="G182" s="2"/>
+      <c r="H182" s="26" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="178" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B178" s="10" t="s">
+    <row r="183" spans="1:8" ht="24.6" x14ac:dyDescent="0.3">
+      <c r="A183" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B183" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="C183" s="32" t="s">
+        <v>397</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E183" s="10"/>
+      <c r="F183" s="10"/>
+      <c r="G183" s="10"/>
+      <c r="H183" s="26" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" ht="24.6" x14ac:dyDescent="0.3">
+      <c r="A184" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B184" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="C184" s="32" t="s">
+        <v>398</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E184" s="10"/>
+      <c r="F184" s="10"/>
+      <c r="G184" s="10"/>
+      <c r="H184" s="26" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" ht="24.6" x14ac:dyDescent="0.3">
+      <c r="A185" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="C185" s="32" t="s">
+        <v>396</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E185" s="2"/>
+      <c r="F185" s="2"/>
+      <c r="G185" s="2"/>
+      <c r="H185" s="26" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A186" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B186" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="C186" s="32" t="s">
+        <v>395</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E186" s="10"/>
+      <c r="F186" s="10"/>
+      <c r="G186" s="10"/>
+      <c r="H186" s="26" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" ht="24.6" x14ac:dyDescent="0.3">
+      <c r="A187" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B187" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="C187" s="32" t="s">
+        <v>394</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E187" s="10"/>
+      <c r="F187" s="10"/>
+      <c r="G187" s="10"/>
+      <c r="H187" s="26" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A188" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B188" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="C188" s="32" t="s">
         <v>390</v>
       </c>
-      <c r="C178" s="32" t="s">
-        <v>408</v>
-      </c>
-      <c r="D178" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E178" s="10"/>
-      <c r="F178" s="26" t="s">
+      <c r="D188" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E188" s="10"/>
+      <c r="F188" s="10"/>
+      <c r="G188" s="10"/>
+      <c r="H188" s="26" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="179" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B179" s="10" t="s">
+    <row r="189" spans="1:8" ht="36.6" x14ac:dyDescent="0.3">
+      <c r="A189" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B189" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="C189" s="32" t="s">
         <v>391</v>
       </c>
-      <c r="C179" s="32" t="s">
-        <v>409</v>
-      </c>
-      <c r="D179" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E179" s="10"/>
-      <c r="F179" s="26" t="s">
+      <c r="D189" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E189" s="10"/>
+      <c r="F189" s="10"/>
+      <c r="G189" s="10"/>
+      <c r="H189" s="26" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="180" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B180" s="10" t="s">
+    <row r="190" spans="1:8" ht="36.6" x14ac:dyDescent="0.3">
+      <c r="A190" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B190" s="10" t="s">
+        <v>380</v>
+      </c>
+      <c r="C190" s="32" t="s">
         <v>392</v>
       </c>
-      <c r="C180" s="32" t="s">
-        <v>410</v>
-      </c>
-      <c r="D180" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E180" s="10"/>
-      <c r="F180" s="26" t="s">
+      <c r="D190" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E190" s="10"/>
+      <c r="F190" s="10"/>
+      <c r="G190" s="10"/>
+      <c r="H190" s="26" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="181" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B181" s="10" t="s">
-        <v>393</v>
-      </c>
-      <c r="C181" s="32" t="s">
-        <v>369</v>
-      </c>
-      <c r="D181" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E181" s="10"/>
-      <c r="F181" s="26" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A182" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B182" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="C182" s="32" t="s">
-        <v>411</v>
-      </c>
-      <c r="D182" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E182" s="2"/>
-      <c r="F182" s="26" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A183" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B183" s="10" t="s">
-        <v>395</v>
-      </c>
-      <c r="C183" s="32" t="s">
-        <v>419</v>
-      </c>
-      <c r="D183" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E183" s="10"/>
-      <c r="F183" s="26" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A184" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B184" s="10" t="s">
-        <v>396</v>
-      </c>
-      <c r="C184" s="32" t="s">
-        <v>420</v>
-      </c>
-      <c r="D184" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E184" s="10"/>
-      <c r="F184" s="26" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A185" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B185" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="C185" s="32" t="s">
-        <v>418</v>
-      </c>
-      <c r="D185" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E185" s="2"/>
-      <c r="F185" s="26" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B186" s="10" t="s">
-        <v>398</v>
-      </c>
-      <c r="C186" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="D186" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E186" s="10"/>
-      <c r="F186" s="26" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A187" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B187" s="10" t="s">
-        <v>399</v>
-      </c>
-      <c r="C187" s="32" t="s">
-        <v>416</v>
-      </c>
-      <c r="D187" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E187" s="10"/>
-      <c r="F187" s="26" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B188" s="10" t="s">
-        <v>400</v>
-      </c>
-      <c r="C188" s="32" t="s">
-        <v>412</v>
-      </c>
-      <c r="D188" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E188" s="10"/>
-      <c r="F188" s="26" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" ht="36.75" x14ac:dyDescent="0.25">
-      <c r="A189" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B189" s="10" t="s">
-        <v>401</v>
-      </c>
-      <c r="C189" s="32" t="s">
-        <v>413</v>
-      </c>
-      <c r="D189" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E189" s="10"/>
-      <c r="F189" s="26" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" ht="36.75" x14ac:dyDescent="0.25">
-      <c r="A190" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B190" s="10" t="s">
-        <v>402</v>
-      </c>
-      <c r="C190" s="32" t="s">
-        <v>414</v>
-      </c>
-      <c r="D190" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E190" s="10"/>
-      <c r="F190" s="26" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
         <v>47</v>
       </c>
@@ -6004,17 +6355,19 @@
         <v>324</v>
       </c>
       <c r="C191" s="42" t="s">
-        <v>438</v>
+        <v>416</v>
       </c>
       <c r="D191" s="2" t="s">
         <v>191</v>
       </c>
       <c r="E191" s="10"/>
-      <c r="F191" s="26" t="s">
+      <c r="F191" s="10"/>
+      <c r="G191" s="10"/>
+      <c r="H191" s="26" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
         <v>47</v>
       </c>
@@ -6022,17 +6375,19 @@
         <v>325</v>
       </c>
       <c r="C192" s="42" t="s">
-        <v>439</v>
+        <v>417</v>
       </c>
       <c r="D192" s="2" t="s">
         <v>191</v>
       </c>
       <c r="E192" s="10"/>
-      <c r="F192" s="26" t="s">
+      <c r="F192" s="10"/>
+      <c r="G192" s="10"/>
+      <c r="H192" s="26" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
         <v>47</v>
       </c>
@@ -6040,17 +6395,19 @@
         <v>326</v>
       </c>
       <c r="C193" s="42" t="s">
-        <v>440</v>
+        <v>418</v>
       </c>
       <c r="D193" s="2" t="s">
         <v>191</v>
       </c>
       <c r="E193" s="10"/>
-      <c r="F193" s="26" t="s">
+      <c r="F193" s="10"/>
+      <c r="G193" s="10"/>
+      <c r="H193" s="26" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
         <v>47</v>
       </c>
@@ -6058,17 +6415,19 @@
         <v>327</v>
       </c>
       <c r="C194" s="42" t="s">
-        <v>441</v>
+        <v>419</v>
       </c>
       <c r="D194" s="2" t="s">
         <v>191</v>
       </c>
       <c r="E194" s="10"/>
-      <c r="F194" s="26" t="s">
+      <c r="F194" s="10"/>
+      <c r="G194" s="10"/>
+      <c r="H194" s="26" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
         <v>47</v>
       </c>
@@ -6076,17 +6435,19 @@
         <v>328</v>
       </c>
       <c r="C195" s="42" t="s">
-        <v>442</v>
+        <v>420</v>
       </c>
       <c r="D195" s="2" t="s">
         <v>191</v>
       </c>
       <c r="E195" s="10"/>
-      <c r="F195" s="26" t="s">
+      <c r="F195" s="10"/>
+      <c r="G195" s="10"/>
+      <c r="H195" s="26" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
         <v>47</v>
       </c>
@@ -6094,17 +6455,19 @@
         <v>329</v>
       </c>
       <c r="C196" s="42" t="s">
-        <v>443</v>
+        <v>421</v>
       </c>
       <c r="D196" s="2" t="s">
         <v>191</v>
       </c>
       <c r="E196" s="10"/>
-      <c r="F196" s="26" t="s">
+      <c r="F196" s="10"/>
+      <c r="G196" s="10"/>
+      <c r="H196" s="26" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
         <v>47</v>
       </c>
@@ -6112,17 +6475,19 @@
         <v>330</v>
       </c>
       <c r="C197" s="42" t="s">
-        <v>444</v>
+        <v>422</v>
       </c>
       <c r="D197" s="2" t="s">
         <v>191</v>
       </c>
       <c r="E197" s="10"/>
-      <c r="F197" s="26" t="s">
+      <c r="F197" s="10"/>
+      <c r="G197" s="10"/>
+      <c r="H197" s="26" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
         <v>47</v>
       </c>
@@ -6130,17 +6495,19 @@
         <v>331</v>
       </c>
       <c r="C198" s="42" t="s">
-        <v>445</v>
+        <v>423</v>
       </c>
       <c r="D198" s="2" t="s">
         <v>191</v>
       </c>
       <c r="E198" s="10"/>
-      <c r="F198" s="26" t="s">
+      <c r="F198" s="10"/>
+      <c r="G198" s="10"/>
+      <c r="H198" s="26" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" s="2" t="s">
         <v>47</v>
       </c>
@@ -6148,17 +6515,19 @@
         <v>332</v>
       </c>
       <c r="C199" s="42" t="s">
-        <v>446</v>
+        <v>424</v>
       </c>
       <c r="D199" s="2" t="s">
         <v>191</v>
       </c>
       <c r="E199" s="10"/>
-      <c r="F199" s="26" t="s">
+      <c r="F199" s="10"/>
+      <c r="G199" s="10"/>
+      <c r="H199" s="26" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="200" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A200" s="15" t="s">
         <v>47</v>
       </c>
@@ -6166,17 +6535,19 @@
         <v>333</v>
       </c>
       <c r="C200" s="42" t="s">
-        <v>447</v>
+        <v>425</v>
       </c>
       <c r="D200" s="15" t="s">
         <v>191</v>
       </c>
       <c r="E200" s="30"/>
-      <c r="F200" s="28" t="s">
+      <c r="F200" s="30"/>
+      <c r="G200" s="30"/>
+      <c r="H200" s="28" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B201" s="23" t="s">
         <v>178</v>
       </c>
@@ -6184,7 +6555,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="202" spans="1:6" ht="24" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="C202" s="48" t="s">
         <v>192</v>
       </c>
@@ -6194,134 +6565,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F57F4F55-E9CA-4040-B79A-832EE815F8FC}">
-  <dimension ref="A6:C16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:C15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>344</v>
-      </c>
-      <c r="B6" t="s">
-        <v>345</v>
-      </c>
-      <c r="C6" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>344</v>
-      </c>
-      <c r="B7" t="s">
-        <v>347</v>
-      </c>
-      <c r="C7" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>344</v>
-      </c>
-      <c r="B8" t="s">
-        <v>349</v>
-      </c>
-      <c r="C8" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>344</v>
-      </c>
-      <c r="B9" t="s">
-        <v>351</v>
-      </c>
-      <c r="C9" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>344</v>
-      </c>
-      <c r="B10" t="s">
-        <v>353</v>
-      </c>
-      <c r="C10" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>344</v>
-      </c>
-      <c r="B11" t="s">
-        <v>355</v>
-      </c>
-      <c r="C11" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>344</v>
-      </c>
-      <c r="B12" t="s">
-        <v>357</v>
-      </c>
-      <c r="C12" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>344</v>
-      </c>
-      <c r="B13" t="s">
-        <v>359</v>
-      </c>
-      <c r="C13" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>344</v>
-      </c>
-      <c r="B14" t="s">
-        <v>361</v>
-      </c>
-      <c r="C14" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>344</v>
-      </c>
-      <c r="B15" t="s">
-        <v>363</v>
-      </c>
-      <c r="C15" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>343</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/inst/template/features.dictionary.xlsx
+++ b/inst/template/features.dictionary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guow4\AppData\Local\Temp\scp27052\vf\users\guow4\project0\GGIR\postGGIR\postGGIR_compile\v2\mMARCH.AC\inst\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guow4\AppData\Local\Temp\scp02654\vf\users\guow4\project0\GGIR\postGGIR\postGGIR_compile\v2\mMARCH.AC\inst\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A257DF-16C2-41B5-9926-3D4695ED36A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{043D6292-0D4E-4609-88C4-F9D1B0906045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29595" yWindow="-900" windowWidth="23475" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4095" yWindow="1095" windowWidth="32625" windowHeight="17715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dictionary" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="439">
   <si>
     <t>acc_wake</t>
   </si>
@@ -231,9 +231,6 @@
     <t>Source</t>
   </si>
   <si>
-    <t>*</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -567,9 +564,6 @@
     <t>Note.</t>
   </si>
   <si>
-    <t>In column H, * indicates variable that was calculated based on other variables in that data source.</t>
-  </si>
-  <si>
     <t>TAC_24h</t>
   </si>
   <si>
@@ -1311,7 +1305,46 @@
     <t>GGIR3.2.0_Variable</t>
   </si>
   <si>
-    <t>GGIR3.2.0_Source</t>
+    <t>SleepRegularityIndex1</t>
+  </si>
+  <si>
+    <t>SleepRegularityIndex2</t>
+  </si>
+  <si>
+    <t>WASO</t>
+  </si>
+  <si>
+    <t>GGIR-part6</t>
+  </si>
+  <si>
+    <t>Wake After Sleep Onset: SptDuration - SleepDurationInSpt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Sleep Regularity Index inspired by Phillips et al. 2017, but calculated per day-pair to enable user to study patterns across days, and calculated based on sustained inactivity bouts. </t>
+  </si>
+  <si>
+    <t>The Sleep Regularity Index inspired by Phillips et al. 2017, but calculated per day-pair to enable user to study patterns across days, and calculated based on classified naps and sleep. </t>
+  </si>
+  <si>
+    <t>GGIR-part4*</t>
+  </si>
+  <si>
+    <t>In Column D, an asterisk (*) indicates variables that were calculated based on other variables within the same data source and were not directly copied from that data source.</t>
+  </si>
+  <si>
+    <t>L5_ENMO_mg_0.24hr</t>
+  </si>
+  <si>
+    <t>M10_ENMO_mg_0.24hr</t>
+  </si>
+  <si>
+    <t>L5hr_ENMO_mg_0.24hr</t>
+  </si>
+  <si>
+    <t>M10hr_ENMO_mg_0.24hr</t>
+  </si>
+  <si>
+    <t>GGIR-part2*</t>
   </si>
 </sst>
 </file>
@@ -1955,7 +1988,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1963,7 +1996,7 @@
     <xf numFmtId="0" fontId="19" fillId="36" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="36" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1976,7 +2009,6 @@
     <xf numFmtId="0" fontId="18" fillId="33" borderId="13" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="11" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="35" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="36" borderId="14" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="36" borderId="15" xfId="15" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2101,9 +2133,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2141,7 +2173,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2247,7 +2279,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2389,7 +2421,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2397,4167 +2429,4019 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90AFE03C-6801-4995-8DC4-E01E63AE412B}">
-  <dimension ref="A1:N202"/>
+  <dimension ref="A1:M205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55:D74"/>
+    <sheetView tabSelected="1" topLeftCell="A112" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="G145" sqref="G145"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" style="8" customWidth="1"/>
-    <col min="2" max="2" width="27.109375" style="8" customWidth="1"/>
-    <col min="3" max="3" width="136.88671875" style="49" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" style="8" customWidth="1"/>
-    <col min="5" max="7" width="18.33203125" style="8" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" style="8" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" style="8"/>
+    <col min="1" max="1" width="11.5703125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="27.140625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="136.85546875" style="48" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="8" customWidth="1"/>
+    <col min="6" max="7" width="18.28515625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="33" t="s">
-        <v>68</v>
+      <c r="C1" s="32" t="s">
+        <v>67</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>66</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>71</v>
+        <v>120</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>426</v>
+        <v>70</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>45</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C2" s="34" t="s">
-        <v>74</v>
+        <v>71</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>73</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="E2" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="4"/>
       <c r="G2" s="4"/>
-      <c r="H2" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
       <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>45</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>75</v>
+        <v>72</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>74</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="E3" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="4"/>
       <c r="G3" s="4"/>
-      <c r="H3" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
       <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>45</v>
       </c>
       <c r="B4" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="35" t="s">
-        <v>113</v>
-      </c>
       <c r="D4" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="E4" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="4"/>
       <c r="G4" s="4"/>
-      <c r="H4" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
       <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>45</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C5" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="21" t="s">
-        <v>188</v>
-      </c>
-      <c r="E5" s="4" t="s">
+      <c r="D5" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="4"/>
       <c r="G5" s="4"/>
-      <c r="H5" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
       <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>45</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="37" t="s">
-        <v>155</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>188</v>
-      </c>
-      <c r="E6" s="4" t="s">
+      <c r="C6" s="36" t="s">
+        <v>154</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>432</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="4"/>
       <c r="G6" s="4"/>
-      <c r="H6" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="I6" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
       <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>45</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="37" t="s">
-        <v>156</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>188</v>
-      </c>
-      <c r="E7" s="4" t="s">
+      <c r="C7" s="36" t="s">
+        <v>155</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>432</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="4"/>
       <c r="G7" s="4"/>
-      <c r="H7" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
       <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>45</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="C8" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="21" t="s">
-        <v>189</v>
-      </c>
-      <c r="E8" s="4" t="s">
+      <c r="D8" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="4"/>
       <c r="G8" s="4"/>
-      <c r="H8" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
       <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>45</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C9" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="21" t="s">
-        <v>189</v>
-      </c>
-      <c r="E9" s="4" t="s">
+      <c r="D9" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="4"/>
       <c r="G9" s="4"/>
-      <c r="H9" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
       <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>45</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="C10" s="38" t="s">
-        <v>78</v>
-      </c>
       <c r="D10" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="E10" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="4"/>
       <c r="G10" s="4"/>
-      <c r="H10" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
       <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="39" t="s">
-        <v>157</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>429</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
       <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="39" t="s">
-        <v>158</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C13" s="39" t="s">
-        <v>182</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
+    </row>
+    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>430</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+    </row>
+    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>431</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>428</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
       <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="C14" s="39" t="s">
-        <v>183</v>
+      <c r="B14" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="38" t="s">
+        <v>156</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="E14" s="3"/>
+        <v>189</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>122</v>
+      </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="C15" s="39" t="s">
-        <v>124</v>
+      <c r="B15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="38" t="s">
+        <v>157</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+        <v>189</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="C16" s="39" t="s">
-        <v>125</v>
+      <c r="B16" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C16" s="38" t="s">
+        <v>180</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+        <v>189</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="C17" s="39" t="s">
-        <v>126</v>
+      <c r="B17" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C17" s="38" t="s">
+        <v>181</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+        <v>189</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="C18" s="39" t="s">
-        <v>127</v>
+        <v>139</v>
+      </c>
+      <c r="C18" s="38" t="s">
+        <v>123</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="E18" s="9"/>
+        <v>189</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>122</v>
+      </c>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
-      <c r="H18" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="C19" s="39" t="s">
-        <v>128</v>
+        <v>140</v>
+      </c>
+      <c r="C19" s="38" t="s">
+        <v>124</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="E19" s="9"/>
+        <v>189</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>122</v>
+      </c>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
-      <c r="H19" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="C20" s="39" t="s">
-        <v>129</v>
+        <v>141</v>
+      </c>
+      <c r="C20" s="38" t="s">
+        <v>125</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="E20" s="9"/>
+        <v>189</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>122</v>
+      </c>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
-      <c r="H20" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="C21" s="39" t="s">
-        <v>130</v>
+        <v>142</v>
+      </c>
+      <c r="C21" s="38" t="s">
+        <v>126</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="E21" s="9"/>
+        <v>189</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>122</v>
+      </c>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
-      <c r="H21" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="C22" s="39" t="s">
-        <v>131</v>
+        <v>143</v>
+      </c>
+      <c r="C22" s="38" t="s">
+        <v>127</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="E22" s="9"/>
+        <v>189</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>122</v>
+      </c>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
-      <c r="H22" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="C23" s="39" t="s">
-        <v>132</v>
+        <v>144</v>
+      </c>
+      <c r="C23" s="38" t="s">
+        <v>128</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="E23" s="9"/>
+        <v>189</v>
+      </c>
+      <c r="E23" s="23" t="s">
+        <v>122</v>
+      </c>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
-      <c r="H23" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="C24" s="39" t="s">
-        <v>133</v>
+        <v>145</v>
+      </c>
+      <c r="C24" s="38" t="s">
+        <v>129</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="E24" s="9"/>
+        <v>189</v>
+      </c>
+      <c r="E24" s="23" t="s">
+        <v>122</v>
+      </c>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
-      <c r="H24" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="C25" s="39" t="s">
-        <v>134</v>
+        <v>146</v>
+      </c>
+      <c r="C25" s="38" t="s">
+        <v>130</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="E25" s="9"/>
+        <v>189</v>
+      </c>
+      <c r="E25" s="23" t="s">
+        <v>122</v>
+      </c>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
-      <c r="H25" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="C26" s="39" t="s">
-        <v>135</v>
+        <v>147</v>
+      </c>
+      <c r="C26" s="38" t="s">
+        <v>131</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="E26" s="9"/>
+        <v>189</v>
+      </c>
+      <c r="E26" s="23" t="s">
+        <v>122</v>
+      </c>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
-      <c r="H26" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="C27" s="39" t="s">
-        <v>136</v>
+        <v>148</v>
+      </c>
+      <c r="C27" s="38" t="s">
+        <v>132</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="E27" s="9"/>
+        <v>189</v>
+      </c>
+      <c r="E27" s="23" t="s">
+        <v>122</v>
+      </c>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
-      <c r="H27" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="C28" s="39" t="s">
-        <v>137</v>
+        <v>149</v>
+      </c>
+      <c r="C28" s="38" t="s">
+        <v>133</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="E28" s="9"/>
+        <v>189</v>
+      </c>
+      <c r="E28" s="23" t="s">
+        <v>122</v>
+      </c>
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
-      <c r="H28" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="C29" s="39" t="s">
-        <v>138</v>
+        <v>150</v>
+      </c>
+      <c r="C29" s="38" t="s">
+        <v>134</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="E29" s="9"/>
+        <v>189</v>
+      </c>
+      <c r="E29" s="23" t="s">
+        <v>122</v>
+      </c>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
-      <c r="H29" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="C30" s="39" t="s">
-        <v>207</v>
+        <v>151</v>
+      </c>
+      <c r="C30" s="38" t="s">
+        <v>135</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="E30" s="9"/>
+        <v>189</v>
+      </c>
+      <c r="E30" s="23" t="s">
+        <v>122</v>
+      </c>
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
-      <c r="H30" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="C31" s="39" t="s">
-        <v>208</v>
+        <v>152</v>
+      </c>
+      <c r="C31" s="38" t="s">
+        <v>136</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="E31" s="9"/>
+        <v>189</v>
+      </c>
+      <c r="E31" s="23" t="s">
+        <v>122</v>
+      </c>
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
-      <c r="H31" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="C32" s="39" t="s">
-        <v>209</v>
+        <v>153</v>
+      </c>
+      <c r="C32" s="38" t="s">
+        <v>137</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="E32" s="9"/>
+        <v>189</v>
+      </c>
+      <c r="E32" s="23" t="s">
+        <v>122</v>
+      </c>
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
-      <c r="H32" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="C33" s="39" t="s">
-        <v>210</v>
+        <v>204</v>
+      </c>
+      <c r="C33" s="38" t="s">
+        <v>205</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="E33" s="9"/>
+        <v>189</v>
+      </c>
+      <c r="E33" s="23" t="s">
+        <v>122</v>
+      </c>
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
-      <c r="H33" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="C34" s="39" t="s">
-        <v>211</v>
+        <v>191</v>
+      </c>
+      <c r="C34" s="38" t="s">
+        <v>206</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="E34" s="9"/>
+        <v>189</v>
+      </c>
+      <c r="E34" s="23" t="s">
+        <v>122</v>
+      </c>
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
-      <c r="H34" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="C35" s="39" t="s">
-        <v>212</v>
+        <v>192</v>
+      </c>
+      <c r="C35" s="38" t="s">
+        <v>207</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="E35" s="9"/>
+        <v>189</v>
+      </c>
+      <c r="E35" s="23" t="s">
+        <v>122</v>
+      </c>
       <c r="F35" s="9"/>
       <c r="G35" s="9"/>
-      <c r="H35" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="C36" s="39" t="s">
-        <v>213</v>
+        <v>193</v>
+      </c>
+      <c r="C36" s="38" t="s">
+        <v>208</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="E36" s="9"/>
+        <v>189</v>
+      </c>
+      <c r="E36" s="23" t="s">
+        <v>122</v>
+      </c>
       <c r="F36" s="9"/>
       <c r="G36" s="9"/>
-      <c r="H36" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="C37" s="39" t="s">
-        <v>214</v>
+        <v>194</v>
+      </c>
+      <c r="C37" s="38" t="s">
+        <v>209</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="E37" s="9"/>
+        <v>189</v>
+      </c>
+      <c r="E37" s="23" t="s">
+        <v>122</v>
+      </c>
       <c r="F37" s="9"/>
       <c r="G37" s="9"/>
-      <c r="H37" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="C38" s="39" t="s">
-        <v>215</v>
+        <v>195</v>
+      </c>
+      <c r="C38" s="38" t="s">
+        <v>210</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="E38" s="9"/>
+        <v>189</v>
+      </c>
+      <c r="E38" s="23" t="s">
+        <v>122</v>
+      </c>
       <c r="F38" s="9"/>
       <c r="G38" s="9"/>
-      <c r="H38" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="C39" s="39" t="s">
-        <v>133</v>
+        <v>196</v>
+      </c>
+      <c r="C39" s="38" t="s">
+        <v>211</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="E39" s="9"/>
+        <v>189</v>
+      </c>
+      <c r="E39" s="23" t="s">
+        <v>122</v>
+      </c>
       <c r="F39" s="9"/>
       <c r="G39" s="9"/>
-      <c r="H39" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="C40" s="39" t="s">
-        <v>216</v>
+        <v>197</v>
+      </c>
+      <c r="C40" s="38" t="s">
+        <v>212</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="E40" s="9"/>
+        <v>189</v>
+      </c>
+      <c r="E40" s="23" t="s">
+        <v>122</v>
+      </c>
       <c r="F40" s="9"/>
       <c r="G40" s="9"/>
-      <c r="H40" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="C41" s="39" t="s">
-        <v>217</v>
+        <v>198</v>
+      </c>
+      <c r="C41" s="38" t="s">
+        <v>213</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="E41" s="9"/>
+        <v>189</v>
+      </c>
+      <c r="E41" s="23" t="s">
+        <v>122</v>
+      </c>
       <c r="F41" s="9"/>
       <c r="G41" s="9"/>
-      <c r="H41" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="C42" s="39" t="s">
-        <v>218</v>
+        <v>148</v>
+      </c>
+      <c r="C42" s="38" t="s">
+        <v>132</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="E42" s="9"/>
+        <v>189</v>
+      </c>
+      <c r="E42" s="23" t="s">
+        <v>122</v>
+      </c>
       <c r="F42" s="9"/>
       <c r="G42" s="9"/>
-      <c r="H42" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="C43" s="39" t="s">
-        <v>219</v>
+        <v>199</v>
+      </c>
+      <c r="C43" s="38" t="s">
+        <v>214</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="E43" s="9"/>
+        <v>189</v>
+      </c>
+      <c r="E43" s="23" t="s">
+        <v>122</v>
+      </c>
       <c r="F43" s="9"/>
       <c r="G43" s="9"/>
-      <c r="H43" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="C44" s="39" t="s">
-        <v>220</v>
+        <v>200</v>
+      </c>
+      <c r="C44" s="38" t="s">
+        <v>215</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="E44" s="9"/>
+        <v>189</v>
+      </c>
+      <c r="E44" s="23" t="s">
+        <v>122</v>
+      </c>
       <c r="F44" s="9"/>
       <c r="G44" s="9"/>
-      <c r="H44" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C45" s="40" t="s">
-        <v>159</v>
+        <v>201</v>
+      </c>
+      <c r="C45" s="38" t="s">
+        <v>216</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="E45" s="9"/>
+        <v>189</v>
+      </c>
+      <c r="E45" s="23" t="s">
+        <v>122</v>
+      </c>
       <c r="F45" s="9"/>
       <c r="G45" s="9"/>
-      <c r="H45" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C46" s="40" t="s">
-        <v>160</v>
+        <v>202</v>
+      </c>
+      <c r="C46" s="38" t="s">
+        <v>217</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="E46" s="9"/>
+        <v>189</v>
+      </c>
+      <c r="E46" s="23" t="s">
+        <v>122</v>
+      </c>
       <c r="F46" s="9"/>
       <c r="G46" s="9"/>
-      <c r="H46" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C47" s="40" t="s">
-        <v>161</v>
+        <v>203</v>
+      </c>
+      <c r="C47" s="38" t="s">
+        <v>218</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="E47" s="9"/>
+        <v>189</v>
+      </c>
+      <c r="E47" s="23" t="s">
+        <v>122</v>
+      </c>
       <c r="F47" s="9"/>
       <c r="G47" s="9"/>
-      <c r="H47" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C48" s="40" t="s">
-        <v>162</v>
+        <v>48</v>
+      </c>
+      <c r="C48" s="39" t="s">
+        <v>158</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="E48" s="9"/>
+        <v>189</v>
+      </c>
+      <c r="E48" s="23" t="s">
+        <v>122</v>
+      </c>
       <c r="F48" s="9"/>
       <c r="G48" s="9"/>
-      <c r="H48" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C49" s="40" t="s">
-        <v>163</v>
+        <v>49</v>
+      </c>
+      <c r="C49" s="39" t="s">
+        <v>159</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="E49" s="9"/>
+        <v>189</v>
+      </c>
+      <c r="E49" s="23" t="s">
+        <v>122</v>
+      </c>
       <c r="F49" s="9"/>
       <c r="G49" s="9"/>
-      <c r="H49" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C50" s="40" t="s">
-        <v>164</v>
+        <v>50</v>
+      </c>
+      <c r="C50" s="39" t="s">
+        <v>160</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="E50" s="9"/>
+        <v>189</v>
+      </c>
+      <c r="E50" s="23" t="s">
+        <v>122</v>
+      </c>
       <c r="F50" s="9"/>
       <c r="G50" s="9"/>
-      <c r="H50" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C51" s="40" t="s">
-        <v>165</v>
+        <v>51</v>
+      </c>
+      <c r="C51" s="39" t="s">
+        <v>161</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="E51" s="9"/>
+        <v>189</v>
+      </c>
+      <c r="E51" s="23" t="s">
+        <v>122</v>
+      </c>
       <c r="F51" s="9"/>
       <c r="G51" s="9"/>
-      <c r="H51" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C52" s="40" t="s">
-        <v>166</v>
+        <v>52</v>
+      </c>
+      <c r="C52" s="39" t="s">
+        <v>162</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="E52" s="9"/>
+        <v>189</v>
+      </c>
+      <c r="E52" s="23" t="s">
+        <v>122</v>
+      </c>
       <c r="F52" s="9"/>
       <c r="G52" s="9"/>
-      <c r="H52" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C53" s="40" t="s">
-        <v>167</v>
+        <v>53</v>
+      </c>
+      <c r="C53" s="39" t="s">
+        <v>163</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="E53" s="9"/>
+        <v>189</v>
+      </c>
+      <c r="E53" s="23" t="s">
+        <v>122</v>
+      </c>
       <c r="F53" s="9"/>
       <c r="G53" s="9"/>
-      <c r="H53" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C54" s="40" t="s">
-        <v>168</v>
+        <v>54</v>
+      </c>
+      <c r="C54" s="39" t="s">
+        <v>164</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="E54" s="9"/>
+        <v>189</v>
+      </c>
+      <c r="E54" s="23" t="s">
+        <v>122</v>
+      </c>
       <c r="F54" s="9"/>
       <c r="G54" s="9"/>
-      <c r="H54" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="C55" s="39" t="s">
-        <v>35</v>
+        <v>165</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="E55" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
-      <c r="H55" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E55" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="C56" s="39" t="s">
-        <v>36</v>
+        <v>166</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="E56" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E56" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="C57" s="39" t="s">
-        <v>37</v>
+        <v>167</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
-      <c r="H57" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E57" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B58" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="C58" s="39" t="s">
-        <v>38</v>
+      <c r="C58" s="38" t="s">
+        <v>35</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F58" s="3"/>
+        <v>187</v>
+      </c>
+      <c r="E58" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="G58" s="3"/>
-      <c r="H58" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="C59" s="41" t="s">
-        <v>100</v>
+        <v>79</v>
+      </c>
+      <c r="C59" s="38" t="s">
+        <v>36</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
+        <v>187</v>
+      </c>
+      <c r="E59" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="G59" s="3"/>
-      <c r="H59" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="C60" s="41" t="s">
-        <v>101</v>
+        <v>80</v>
+      </c>
+      <c r="C60" s="38" t="s">
+        <v>37</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
+        <v>187</v>
+      </c>
+      <c r="E60" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="G60" s="3"/>
-      <c r="H60" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="C61" s="41" t="s">
-        <v>102</v>
+        <v>81</v>
+      </c>
+      <c r="C61" s="38" t="s">
+        <v>38</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
+        <v>187</v>
+      </c>
+      <c r="E61" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="G61" s="3"/>
-      <c r="H61" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="C62" s="39" t="s">
-        <v>103</v>
+        <v>83</v>
+      </c>
+      <c r="C62" s="40" t="s">
+        <v>99</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="E62" s="3"/>
+        <v>187</v>
+      </c>
+      <c r="E62" s="23" t="s">
+        <v>122</v>
+      </c>
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
-      <c r="H62" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="C63" s="39" t="s">
-        <v>104</v>
+        <v>84</v>
+      </c>
+      <c r="C63" s="40" t="s">
+        <v>100</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="E63" s="3"/>
+        <v>187</v>
+      </c>
+      <c r="E63" s="23" t="s">
+        <v>122</v>
+      </c>
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
-      <c r="H63" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="C64" s="39" t="s">
-        <v>105</v>
+        <v>85</v>
+      </c>
+      <c r="C64" s="40" t="s">
+        <v>101</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="E64" s="3"/>
+        <v>187</v>
+      </c>
+      <c r="E64" s="23" t="s">
+        <v>122</v>
+      </c>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
-      <c r="H64" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="C65" s="39" t="s">
-        <v>106</v>
+        <v>89</v>
+      </c>
+      <c r="C65" s="38" t="s">
+        <v>102</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="E65" s="3"/>
+        <v>187</v>
+      </c>
+      <c r="E65" s="23" t="s">
+        <v>122</v>
+      </c>
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
-      <c r="H65" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="C66" s="39" t="s">
-        <v>107</v>
+        <v>90</v>
+      </c>
+      <c r="C66" s="38" t="s">
+        <v>103</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="E66" s="3"/>
+        <v>187</v>
+      </c>
+      <c r="E66" s="23" t="s">
+        <v>122</v>
+      </c>
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
-      <c r="H66" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="C67" s="39" t="s">
-        <v>108</v>
+        <v>91</v>
+      </c>
+      <c r="C67" s="38" t="s">
+        <v>104</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="E67" s="3"/>
+        <v>187</v>
+      </c>
+      <c r="E67" s="23" t="s">
+        <v>122</v>
+      </c>
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
-      <c r="H67" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C68" s="39" t="s">
-        <v>109</v>
+        <v>92</v>
+      </c>
+      <c r="C68" s="38" t="s">
+        <v>105</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="E68" s="3"/>
+        <v>187</v>
+      </c>
+      <c r="E68" s="23" t="s">
+        <v>122</v>
+      </c>
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
-      <c r="H68" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="C69" s="39" t="s">
-        <v>110</v>
+        <v>93</v>
+      </c>
+      <c r="C69" s="38" t="s">
+        <v>106</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="E69" s="3"/>
+        <v>187</v>
+      </c>
+      <c r="E69" s="23" t="s">
+        <v>122</v>
+      </c>
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
-      <c r="H69" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="C70" s="39" t="s">
-        <v>111</v>
+        <v>94</v>
+      </c>
+      <c r="C70" s="38" t="s">
+        <v>107</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="E70" s="3"/>
+        <v>187</v>
+      </c>
+      <c r="E70" s="23" t="s">
+        <v>122</v>
+      </c>
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
-      <c r="H70" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="C71" s="39" t="s">
-        <v>39</v>
+        <v>86</v>
+      </c>
+      <c r="C71" s="38" t="s">
+        <v>108</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>14</v>
+        <v>187</v>
+      </c>
+      <c r="E71" s="23" t="s">
+        <v>122</v>
       </c>
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
-      <c r="H71" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="C72" s="39" t="s">
-        <v>40</v>
+        <v>87</v>
+      </c>
+      <c r="C72" s="38" t="s">
+        <v>109</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>15</v>
+        <v>187</v>
+      </c>
+      <c r="E72" s="23" t="s">
+        <v>122</v>
       </c>
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
-      <c r="H72" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="C73" s="39" t="s">
-        <v>41</v>
+        <v>88</v>
+      </c>
+      <c r="C73" s="38" t="s">
+        <v>110</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>16</v>
+        <v>187</v>
+      </c>
+      <c r="E73" s="23" t="s">
+        <v>122</v>
       </c>
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
-      <c r="H73" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="C74" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="C74" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="E74" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G74" s="3"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C75" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="E75" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G75" s="3"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C76" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="E76" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G76" s="3"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C77" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="D74" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="E74" s="3" t="s">
+      <c r="D77" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="E77" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="F77" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F74" s="3"/>
-      <c r="G74" s="3"/>
-      <c r="H74" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A75" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B75" s="16" t="s">
+      <c r="G77" s="3"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="C78" s="41" t="s">
+        <v>184</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E78" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="F78" s="2"/>
+      <c r="G78" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C75" s="42" t="s">
-        <v>186</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="E75" s="2"/>
-      <c r="F75" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G75" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="H75" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="I75" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A76" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B76" s="2" t="s">
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="C79" s="41" t="s">
+        <v>183</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E79" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C76" s="42" t="s">
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="C80" s="41" t="s">
         <v>185</v>
       </c>
-      <c r="D76" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="E76" s="2"/>
-      <c r="F76" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G76" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="H76" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A77" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B77" s="2" t="s">
+      <c r="D80" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E80" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="F80" s="2"/>
+      <c r="G80" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C77" s="42" t="s">
-        <v>187</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="E77" s="2"/>
-      <c r="F77" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G77" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="H77" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A78" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B78" s="2" t="s">
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="C81" s="41" t="s">
+        <v>182</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E81" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="F81" s="2"/>
+      <c r="G81" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C78" s="42" t="s">
-        <v>184</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="E78" s="2"/>
-      <c r="F78" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G78" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="H78" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A79" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B79" s="2" t="s">
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B82" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C79" s="43" t="s">
-        <v>169</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="E79" s="2"/>
-      <c r="F79" s="2" t="s">
+      <c r="C82" s="42" t="s">
+        <v>168</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="E82" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="F82" s="2"/>
+      <c r="G82" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G79" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="H79" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A80" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B80" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C80" s="42" t="s">
-        <v>226</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E80" s="10"/>
-      <c r="F80" s="10"/>
-      <c r="G80" s="10"/>
-      <c r="H80" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A81" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B81" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="C81" s="42" t="s">
-        <v>227</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E81" s="10"/>
-      <c r="F81" s="10"/>
-      <c r="G81" s="10"/>
-      <c r="H81" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A82" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B82" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="C82" s="42" t="s">
-        <v>228</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E82" s="10"/>
-      <c r="F82" s="10"/>
-      <c r="G82" s="10"/>
-      <c r="H82" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="C83" s="42" t="s">
-        <v>229</v>
+        <v>69</v>
+      </c>
+      <c r="C83" s="41" t="s">
+        <v>224</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E83" s="10"/>
+        <v>189</v>
+      </c>
+      <c r="E83" s="23" t="s">
+        <v>122</v>
+      </c>
       <c r="F83" s="10"/>
       <c r="G83" s="10"/>
-      <c r="H83" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="C84" s="42" t="s">
-        <v>230</v>
+        <v>219</v>
+      </c>
+      <c r="C84" s="41" t="s">
+        <v>225</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E84" s="10"/>
+        <v>189</v>
+      </c>
+      <c r="E84" s="23" t="s">
+        <v>122</v>
+      </c>
       <c r="F84" s="10"/>
       <c r="G84" s="10"/>
-      <c r="H84" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="C85" s="42" t="s">
-        <v>231</v>
+        <v>220</v>
+      </c>
+      <c r="C85" s="41" t="s">
+        <v>226</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E85" s="10"/>
+        <v>189</v>
+      </c>
+      <c r="E85" s="23" t="s">
+        <v>122</v>
+      </c>
       <c r="F85" s="10"/>
       <c r="G85" s="10"/>
-      <c r="H85" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="C86" s="42" t="s">
-        <v>295</v>
+        <v>221</v>
+      </c>
+      <c r="C86" s="41" t="s">
+        <v>227</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E86" s="10"/>
+        <v>189</v>
+      </c>
+      <c r="E86" s="23" t="s">
+        <v>122</v>
+      </c>
       <c r="F86" s="10"/>
       <c r="G86" s="10"/>
-      <c r="H86" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="C87" s="42" t="s">
-        <v>296</v>
+        <v>222</v>
+      </c>
+      <c r="C87" s="41" t="s">
+        <v>228</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E87" s="10"/>
+        <v>189</v>
+      </c>
+      <c r="E87" s="23" t="s">
+        <v>122</v>
+      </c>
       <c r="F87" s="10"/>
       <c r="G87" s="10"/>
-      <c r="H87" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="C88" s="42" t="s">
-        <v>297</v>
+        <v>223</v>
+      </c>
+      <c r="C88" s="41" t="s">
+        <v>229</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E88" s="10"/>
+        <v>189</v>
+      </c>
+      <c r="E88" s="23" t="s">
+        <v>122</v>
+      </c>
       <c r="F88" s="10"/>
       <c r="G88" s="10"/>
-      <c r="H88" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="C89" s="42" t="s">
-        <v>298</v>
+        <v>113</v>
+      </c>
+      <c r="C89" s="41" t="s">
+        <v>293</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E89" s="10"/>
+        <v>189</v>
+      </c>
+      <c r="E89" s="23" t="s">
+        <v>122</v>
+      </c>
       <c r="F89" s="10"/>
       <c r="G89" s="10"/>
-      <c r="H89" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="C90" s="42" t="s">
-        <v>299</v>
+        <v>230</v>
+      </c>
+      <c r="C90" s="41" t="s">
+        <v>294</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E90" s="10"/>
+        <v>189</v>
+      </c>
+      <c r="E90" s="23" t="s">
+        <v>122</v>
+      </c>
       <c r="F90" s="10"/>
       <c r="G90" s="10"/>
-      <c r="H90" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="C91" s="42" t="s">
-        <v>300</v>
+        <v>231</v>
+      </c>
+      <c r="C91" s="41" t="s">
+        <v>295</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E91" s="10"/>
+        <v>189</v>
+      </c>
+      <c r="E91" s="23" t="s">
+        <v>122</v>
+      </c>
       <c r="F91" s="10"/>
       <c r="G91" s="10"/>
-      <c r="H91" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="C92" s="42" t="s">
-        <v>252</v>
+        <v>232</v>
+      </c>
+      <c r="C92" s="41" t="s">
+        <v>296</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E92" s="10"/>
+        <v>189</v>
+      </c>
+      <c r="E92" s="23" t="s">
+        <v>122</v>
+      </c>
       <c r="F92" s="10"/>
       <c r="G92" s="10"/>
-      <c r="H92" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="C93" s="42" t="s">
-        <v>247</v>
+        <v>233</v>
+      </c>
+      <c r="C93" s="41" t="s">
+        <v>297</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E93" s="10"/>
+        <v>189</v>
+      </c>
+      <c r="E93" s="23" t="s">
+        <v>122</v>
+      </c>
       <c r="F93" s="10"/>
       <c r="G93" s="10"/>
-      <c r="H93" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="C94" s="42" t="s">
-        <v>248</v>
+        <v>234</v>
+      </c>
+      <c r="C94" s="41" t="s">
+        <v>298</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E94" s="10"/>
+        <v>189</v>
+      </c>
+      <c r="E94" s="23" t="s">
+        <v>122</v>
+      </c>
       <c r="F94" s="10"/>
       <c r="G94" s="10"/>
-      <c r="H94" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="C95" s="42" t="s">
-        <v>249</v>
+        <v>235</v>
+      </c>
+      <c r="C95" s="41" t="s">
+        <v>250</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E95" s="10"/>
+        <v>189</v>
+      </c>
+      <c r="E95" s="23" t="s">
+        <v>122</v>
+      </c>
       <c r="F95" s="10"/>
       <c r="G95" s="10"/>
-      <c r="H95" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="C96" s="42" t="s">
-        <v>250</v>
+        <v>244</v>
+      </c>
+      <c r="C96" s="41" t="s">
+        <v>245</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E96" s="10"/>
+        <v>189</v>
+      </c>
+      <c r="E96" s="23" t="s">
+        <v>122</v>
+      </c>
       <c r="F96" s="10"/>
       <c r="G96" s="10"/>
-      <c r="H96" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C97" s="42" t="s">
-        <v>251</v>
+        <v>236</v>
+      </c>
+      <c r="C97" s="41" t="s">
+        <v>246</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E97" s="10"/>
+        <v>189</v>
+      </c>
+      <c r="E97" s="23" t="s">
+        <v>122</v>
+      </c>
       <c r="F97" s="10"/>
       <c r="G97" s="10"/>
-      <c r="H97" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="C98" s="42" t="s">
-        <v>301</v>
+        <v>237</v>
+      </c>
+      <c r="C98" s="41" t="s">
+        <v>247</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E98" s="10"/>
+        <v>189</v>
+      </c>
+      <c r="E98" s="23" t="s">
+        <v>122</v>
+      </c>
       <c r="F98" s="10"/>
       <c r="G98" s="10"/>
-      <c r="H98" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="C99" s="42" t="s">
-        <v>302</v>
+        <v>238</v>
+      </c>
+      <c r="C99" s="41" t="s">
+        <v>248</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E99" s="10"/>
+        <v>189</v>
+      </c>
+      <c r="E99" s="23" t="s">
+        <v>122</v>
+      </c>
       <c r="F99" s="10"/>
       <c r="G99" s="10"/>
-      <c r="H99" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="C100" s="42" t="s">
-        <v>303</v>
+        <v>68</v>
+      </c>
+      <c r="C100" s="41" t="s">
+        <v>249</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E100" s="10"/>
+        <v>189</v>
+      </c>
+      <c r="E100" s="23" t="s">
+        <v>122</v>
+      </c>
       <c r="F100" s="10"/>
       <c r="G100" s="10"/>
-      <c r="H100" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="C101" s="42" t="s">
-        <v>304</v>
+        <v>239</v>
+      </c>
+      <c r="C101" s="41" t="s">
+        <v>299</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E101" s="10"/>
+        <v>189</v>
+      </c>
+      <c r="E101" s="23" t="s">
+        <v>122</v>
+      </c>
       <c r="F101" s="10"/>
       <c r="G101" s="10"/>
-      <c r="H101" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="C102" s="42" t="s">
-        <v>305</v>
+        <v>240</v>
+      </c>
+      <c r="C102" s="41" t="s">
+        <v>300</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E102" s="10"/>
+        <v>189</v>
+      </c>
+      <c r="E102" s="23" t="s">
+        <v>122</v>
+      </c>
       <c r="F102" s="10"/>
       <c r="G102" s="10"/>
-      <c r="H102" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="C103" s="42" t="s">
-        <v>306</v>
+        <v>241</v>
+      </c>
+      <c r="C103" s="41" t="s">
+        <v>301</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E103" s="10"/>
+        <v>189</v>
+      </c>
+      <c r="E103" s="23" t="s">
+        <v>122</v>
+      </c>
       <c r="F103" s="10"/>
       <c r="G103" s="10"/>
-      <c r="H103" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="C104" s="42" t="s">
-        <v>277</v>
+        <v>242</v>
+      </c>
+      <c r="C104" s="41" t="s">
+        <v>302</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E104" s="10"/>
+        <v>189</v>
+      </c>
+      <c r="E104" s="23" t="s">
+        <v>122</v>
+      </c>
       <c r="F104" s="10"/>
       <c r="G104" s="10"/>
-      <c r="H104" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="C105" s="42" t="s">
-        <v>278</v>
+        <v>243</v>
+      </c>
+      <c r="C105" s="41" t="s">
+        <v>303</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E105" s="10"/>
+        <v>189</v>
+      </c>
+      <c r="E105" s="23" t="s">
+        <v>122</v>
+      </c>
       <c r="F105" s="10"/>
       <c r="G105" s="10"/>
-      <c r="H105" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="C106" s="42" t="s">
-        <v>279</v>
+        <v>114</v>
+      </c>
+      <c r="C106" s="41" t="s">
+        <v>304</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E106" s="10"/>
+        <v>189</v>
+      </c>
+      <c r="E106" s="23" t="s">
+        <v>122</v>
+      </c>
       <c r="F106" s="10"/>
       <c r="G106" s="10"/>
-      <c r="H106" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="C107" s="42" t="s">
-        <v>280</v>
+        <v>251</v>
+      </c>
+      <c r="C107" s="41" t="s">
+        <v>275</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E107" s="10"/>
+        <v>189</v>
+      </c>
+      <c r="E107" s="23" t="s">
+        <v>122</v>
+      </c>
       <c r="F107" s="10"/>
       <c r="G107" s="10"/>
-      <c r="H107" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="C108" s="42" t="s">
-        <v>281</v>
+        <v>252</v>
+      </c>
+      <c r="C108" s="41" t="s">
+        <v>276</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E108" s="10"/>
+        <v>189</v>
+      </c>
+      <c r="E108" s="23" t="s">
+        <v>122</v>
+      </c>
       <c r="F108" s="10"/>
       <c r="G108" s="10"/>
-      <c r="H108" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="C109" s="42" t="s">
-        <v>282</v>
+        <v>253</v>
+      </c>
+      <c r="C109" s="41" t="s">
+        <v>277</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E109" s="10"/>
+        <v>189</v>
+      </c>
+      <c r="E109" s="23" t="s">
+        <v>122</v>
+      </c>
       <c r="F109" s="10"/>
       <c r="G109" s="10"/>
-      <c r="H109" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="C110" s="42" t="s">
-        <v>307</v>
+        <v>254</v>
+      </c>
+      <c r="C110" s="41" t="s">
+        <v>278</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E110" s="10"/>
+        <v>189</v>
+      </c>
+      <c r="E110" s="23" t="s">
+        <v>122</v>
+      </c>
       <c r="F110" s="10"/>
       <c r="G110" s="10"/>
-      <c r="H110" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="C111" s="42" t="s">
-        <v>308</v>
+        <v>256</v>
+      </c>
+      <c r="C111" s="41" t="s">
+        <v>279</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E111" s="10"/>
+        <v>189</v>
+      </c>
+      <c r="E111" s="23" t="s">
+        <v>122</v>
+      </c>
       <c r="F111" s="10"/>
       <c r="G111" s="10"/>
-      <c r="H111" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="C112" s="42" t="s">
-        <v>309</v>
+        <v>255</v>
+      </c>
+      <c r="C112" s="41" t="s">
+        <v>280</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E112" s="10"/>
+        <v>189</v>
+      </c>
+      <c r="E112" s="23" t="s">
+        <v>122</v>
+      </c>
       <c r="F112" s="10"/>
       <c r="G112" s="10"/>
-      <c r="H112" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="C113" s="42" t="s">
-        <v>310</v>
+        <v>263</v>
+      </c>
+      <c r="C113" s="41" t="s">
+        <v>305</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E113" s="10"/>
+        <v>189</v>
+      </c>
+      <c r="E113" s="23" t="s">
+        <v>122</v>
+      </c>
       <c r="F113" s="10"/>
       <c r="G113" s="10"/>
-      <c r="H113" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>269</v>
-      </c>
-      <c r="C114" s="42" t="s">
-        <v>311</v>
+        <v>264</v>
+      </c>
+      <c r="C114" s="41" t="s">
+        <v>306</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E114" s="10"/>
+        <v>189</v>
+      </c>
+      <c r="E114" s="23" t="s">
+        <v>122</v>
+      </c>
       <c r="F114" s="10"/>
       <c r="G114" s="10"/>
-      <c r="H114" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="C115" s="42" t="s">
-        <v>312</v>
+        <v>265</v>
+      </c>
+      <c r="C115" s="41" t="s">
+        <v>307</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E115" s="10"/>
+        <v>189</v>
+      </c>
+      <c r="E115" s="23" t="s">
+        <v>122</v>
+      </c>
       <c r="F115" s="10"/>
       <c r="G115" s="10"/>
-      <c r="H115" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="C116" s="42" t="s">
-        <v>283</v>
+        <v>266</v>
+      </c>
+      <c r="C116" s="41" t="s">
+        <v>308</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E116" s="10"/>
+        <v>189</v>
+      </c>
+      <c r="E116" s="23" t="s">
+        <v>122</v>
+      </c>
       <c r="F116" s="10"/>
       <c r="G116" s="10"/>
-      <c r="H116" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>260</v>
-      </c>
-      <c r="C117" s="42" t="s">
-        <v>284</v>
+        <v>267</v>
+      </c>
+      <c r="C117" s="41" t="s">
+        <v>309</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E117" s="10"/>
+        <v>189</v>
+      </c>
+      <c r="E117" s="23" t="s">
+        <v>122</v>
+      </c>
       <c r="F117" s="10"/>
       <c r="G117" s="10"/>
-      <c r="H117" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="C118" s="42" t="s">
-        <v>285</v>
+        <v>268</v>
+      </c>
+      <c r="C118" s="41" t="s">
+        <v>310</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E118" s="10"/>
+        <v>189</v>
+      </c>
+      <c r="E118" s="23" t="s">
+        <v>122</v>
+      </c>
       <c r="F118" s="10"/>
       <c r="G118" s="10"/>
-      <c r="H118" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B119" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="C119" s="42" t="s">
-        <v>286</v>
+        <v>257</v>
+      </c>
+      <c r="C119" s="41" t="s">
+        <v>281</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E119" s="10"/>
+        <v>189</v>
+      </c>
+      <c r="E119" s="23" t="s">
+        <v>122</v>
+      </c>
       <c r="F119" s="10"/>
       <c r="G119" s="10"/>
-      <c r="H119" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>263</v>
-      </c>
-      <c r="C120" s="42" t="s">
-        <v>287</v>
+        <v>258</v>
+      </c>
+      <c r="C120" s="41" t="s">
+        <v>282</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E120" s="10"/>
+        <v>189</v>
+      </c>
+      <c r="E120" s="23" t="s">
+        <v>122</v>
+      </c>
       <c r="F120" s="10"/>
       <c r="G120" s="10"/>
-      <c r="H120" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B121" s="10" t="s">
-        <v>264</v>
-      </c>
-      <c r="C121" s="42" t="s">
-        <v>288</v>
+        <v>259</v>
+      </c>
+      <c r="C121" s="41" t="s">
+        <v>283</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E121" s="10"/>
+        <v>189</v>
+      </c>
+      <c r="E121" s="23" t="s">
+        <v>122</v>
+      </c>
       <c r="F121" s="10"/>
       <c r="G121" s="10"/>
-      <c r="H121" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="C122" s="42" t="s">
-        <v>313</v>
+        <v>260</v>
+      </c>
+      <c r="C122" s="41" t="s">
+        <v>284</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E122" s="10"/>
+        <v>189</v>
+      </c>
+      <c r="E122" s="23" t="s">
+        <v>122</v>
+      </c>
       <c r="F122" s="10"/>
       <c r="G122" s="10"/>
-      <c r="H122" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B123" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="C123" s="42" t="s">
-        <v>314</v>
+        <v>261</v>
+      </c>
+      <c r="C123" s="41" t="s">
+        <v>285</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E123" s="10"/>
+        <v>189</v>
+      </c>
+      <c r="E123" s="23" t="s">
+        <v>122</v>
+      </c>
       <c r="F123" s="10"/>
       <c r="G123" s="10"/>
-      <c r="H123" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B124" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="C124" s="42" t="s">
-        <v>315</v>
+        <v>262</v>
+      </c>
+      <c r="C124" s="41" t="s">
+        <v>286</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E124" s="10"/>
+        <v>189</v>
+      </c>
+      <c r="E124" s="23" t="s">
+        <v>122</v>
+      </c>
       <c r="F124" s="10"/>
       <c r="G124" s="10"/>
-      <c r="H124" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="C125" s="42" t="s">
-        <v>316</v>
+        <v>269</v>
+      </c>
+      <c r="C125" s="41" t="s">
+        <v>311</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E125" s="10"/>
+        <v>189</v>
+      </c>
+      <c r="E125" s="23" t="s">
+        <v>122</v>
+      </c>
       <c r="F125" s="10"/>
       <c r="G125" s="10"/>
-      <c r="H125" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="C126" s="42" t="s">
-        <v>317</v>
+        <v>270</v>
+      </c>
+      <c r="C126" s="41" t="s">
+        <v>312</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E126" s="10"/>
+        <v>189</v>
+      </c>
+      <c r="E126" s="23" t="s">
+        <v>122</v>
+      </c>
       <c r="F126" s="10"/>
       <c r="G126" s="10"/>
-      <c r="H126" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B127" s="10" t="s">
-        <v>276</v>
-      </c>
-      <c r="C127" s="42" t="s">
-        <v>318</v>
+        <v>271</v>
+      </c>
+      <c r="C127" s="41" t="s">
+        <v>313</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E127" s="10"/>
+        <v>189</v>
+      </c>
+      <c r="E127" s="23" t="s">
+        <v>122</v>
+      </c>
       <c r="F127" s="10"/>
       <c r="G127" s="10"/>
-      <c r="H127" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B128" s="2" t="s">
+      <c r="B128" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="C128" s="41" t="s">
+        <v>314</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E128" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="F128" s="10"/>
+      <c r="G128" s="10"/>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B129" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="C129" s="41" t="s">
+        <v>315</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E129" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="F129" s="10"/>
+      <c r="G129" s="10"/>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B130" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="C130" s="41" t="s">
+        <v>316</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E130" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="F130" s="10"/>
+      <c r="G130" s="10"/>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B131" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C128" s="43" t="s">
-        <v>139</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E128" s="2"/>
-      <c r="F128" s="2"/>
-      <c r="G128" s="2"/>
-      <c r="H128" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A129" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="B129" s="17" t="s">
+      <c r="C131" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E131" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="F131" s="2"/>
+      <c r="G131" s="2"/>
+    </row>
+    <row r="132" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B132" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C129" s="44" t="s">
+      <c r="C132" s="43" t="s">
+        <v>169</v>
+      </c>
+      <c r="D132" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="E132" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="F132" s="2"/>
+      <c r="G132" s="2"/>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B133" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="C133" s="44" t="s">
         <v>170</v>
       </c>
-      <c r="D129" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="E129" s="2"/>
-      <c r="F129" s="2"/>
-      <c r="G129" s="2"/>
-      <c r="H129" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A130" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="B130" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="C130" s="45" t="s">
-        <v>171</v>
-      </c>
-      <c r="D130" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="E130" s="2"/>
-      <c r="F130" s="2"/>
-      <c r="G130" s="2"/>
-      <c r="H130" s="26" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A131" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B131" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="C131" s="32" t="s">
-        <v>170</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="E131" s="2"/>
-      <c r="F131" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G131" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="H131" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A132" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B132" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="C132" s="32" t="s">
-        <v>171</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="E132" s="2"/>
-      <c r="F132" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="G132" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="H132" s="26" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A133" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C133" s="32" t="s">
-        <v>172</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E133" s="2"/>
+      <c r="D133" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="E133" s="25" t="s">
+        <v>121</v>
+      </c>
       <c r="F133" s="2"/>
       <c r="G133" s="2"/>
-      <c r="H133" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B134" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C134" s="32" t="s">
-        <v>173</v>
+      <c r="B134" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C134" s="31" t="s">
+        <v>169</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E134" s="10"/>
-      <c r="F134" s="10"/>
-      <c r="G134" s="10"/>
-      <c r="H134" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+        <v>428</v>
+      </c>
+      <c r="E134" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="F134" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B135" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="C135" s="32" t="s">
-        <v>174</v>
+      <c r="B135" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C135" s="31" t="s">
+        <v>170</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E135" s="10"/>
-      <c r="F135" s="10"/>
-      <c r="G135" s="10"/>
-      <c r="H135" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+        <v>428</v>
+      </c>
+      <c r="E135" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="F135" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C136" s="32" t="s">
-        <v>175</v>
+        <v>118</v>
+      </c>
+      <c r="C136" s="31" t="s">
+        <v>171</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E136" s="2"/>
+        <v>189</v>
+      </c>
+      <c r="E136" s="23" t="s">
+        <v>122</v>
+      </c>
       <c r="F136" s="2"/>
       <c r="G136" s="2"/>
-      <c r="H136" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B137" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C137" s="32" t="s">
-        <v>176</v>
+        <v>58</v>
+      </c>
+      <c r="C137" s="31" t="s">
+        <v>172</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E137" s="10"/>
+        <v>189</v>
+      </c>
+      <c r="E137" s="23" t="s">
+        <v>122</v>
+      </c>
       <c r="F137" s="10"/>
       <c r="G137" s="10"/>
-      <c r="H137" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B138" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C138" s="32" t="s">
-        <v>177</v>
+        <v>59</v>
+      </c>
+      <c r="C138" s="31" t="s">
+        <v>173</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E138" s="10"/>
+        <v>189</v>
+      </c>
+      <c r="E138" s="23" t="s">
+        <v>122</v>
+      </c>
       <c r="F138" s="10"/>
       <c r="G138" s="10"/>
-      <c r="H138" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="C139" s="32" t="s">
-        <v>348</v>
+        <v>119</v>
+      </c>
+      <c r="C139" s="31" t="s">
+        <v>174</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E139" s="2"/>
+        <v>189</v>
+      </c>
+      <c r="E139" s="23" t="s">
+        <v>122</v>
+      </c>
       <c r="F139" s="2"/>
       <c r="G139" s="2"/>
-      <c r="H139" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B140" s="10" t="s">
-        <v>335</v>
-      </c>
-      <c r="C140" s="32" t="s">
-        <v>402</v>
+        <v>25</v>
+      </c>
+      <c r="C140" s="31" t="s">
+        <v>175</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E140" s="10"/>
+        <v>189</v>
+      </c>
+      <c r="E140" s="23" t="s">
+        <v>122</v>
+      </c>
       <c r="F140" s="10"/>
       <c r="G140" s="10"/>
-      <c r="H140" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" ht="24.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B141" s="10" t="s">
-        <v>336</v>
-      </c>
-      <c r="C141" s="32" t="s">
-        <v>343</v>
+        <v>26</v>
+      </c>
+      <c r="C141" s="31" t="s">
+        <v>176</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E141" s="10"/>
+        <v>189</v>
+      </c>
+      <c r="E141" s="23" t="s">
+        <v>122</v>
+      </c>
       <c r="F141" s="10"/>
       <c r="G141" s="10"/>
-      <c r="H141" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" ht="24.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="C142" s="32" t="s">
-        <v>344</v>
+        <v>332</v>
+      </c>
+      <c r="C142" s="31" t="s">
+        <v>346</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E142" s="2"/>
+        <v>189</v>
+      </c>
+      <c r="E142" s="23" t="s">
+        <v>122</v>
+      </c>
       <c r="F142" s="2"/>
       <c r="G142" s="2"/>
-      <c r="H142" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B143" s="10" t="s">
-        <v>338</v>
-      </c>
-      <c r="C143" s="32" t="s">
-        <v>404</v>
+        <v>333</v>
+      </c>
+      <c r="C143" s="31" t="s">
+        <v>400</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E143" s="10"/>
+        <v>189</v>
+      </c>
+      <c r="E143" s="23" t="s">
+        <v>122</v>
+      </c>
       <c r="F143" s="10"/>
       <c r="G143" s="10"/>
-      <c r="H143" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="144" spans="1:7" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B144" s="10" t="s">
-        <v>339</v>
-      </c>
-      <c r="C144" s="32" t="s">
-        <v>349</v>
+        <v>334</v>
+      </c>
+      <c r="C144" s="31" t="s">
+        <v>341</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E144" s="10"/>
+        <v>189</v>
+      </c>
+      <c r="E144" s="23" t="s">
+        <v>122</v>
+      </c>
       <c r="F144" s="10"/>
       <c r="G144" s="10"/>
-      <c r="H144" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" ht="24.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="145" spans="1:7" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B145" s="10" t="s">
-        <v>340</v>
-      </c>
-      <c r="C145" s="32" t="s">
-        <v>345</v>
+      <c r="B145" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C145" s="31" t="s">
+        <v>342</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E145" s="10"/>
-      <c r="F145" s="10"/>
-      <c r="G145" s="10"/>
-      <c r="H145" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" ht="24.6" x14ac:dyDescent="0.3">
+        <v>189</v>
+      </c>
+      <c r="E145" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="F145" s="2"/>
+      <c r="G145" s="2"/>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B146" s="10" t="s">
-        <v>341</v>
-      </c>
-      <c r="C146" s="32" t="s">
-        <v>346</v>
+        <v>336</v>
+      </c>
+      <c r="C146" s="31" t="s">
+        <v>402</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E146" s="10"/>
+        <v>189</v>
+      </c>
+      <c r="E146" s="23" t="s">
+        <v>122</v>
+      </c>
       <c r="F146" s="10"/>
       <c r="G146" s="10"/>
-      <c r="H146" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" ht="24.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B147" s="10" t="s">
-        <v>342</v>
-      </c>
-      <c r="C147" s="32" t="s">
+        <v>337</v>
+      </c>
+      <c r="C147" s="31" t="s">
         <v>347</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E147" s="10"/>
+        <v>189</v>
+      </c>
+      <c r="E147" s="23" t="s">
+        <v>122</v>
+      </c>
       <c r="F147" s="10"/>
       <c r="G147" s="10"/>
-      <c r="H147" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="148" spans="1:7" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B148" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="C148" s="32" t="s">
-        <v>359</v>
+      <c r="B148" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="C148" s="31" t="s">
+        <v>343</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E148" s="2"/>
-      <c r="F148" s="2"/>
-      <c r="G148" s="2"/>
-      <c r="H148" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" ht="24.6" x14ac:dyDescent="0.3">
+        <v>189</v>
+      </c>
+      <c r="E148" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="F148" s="10"/>
+      <c r="G148" s="10"/>
+    </row>
+    <row r="149" spans="1:7" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B149" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="C149" s="32" t="s">
-        <v>403</v>
+        <v>339</v>
+      </c>
+      <c r="C149" s="31" t="s">
+        <v>344</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E149" s="10"/>
+        <v>189</v>
+      </c>
+      <c r="E149" s="23" t="s">
+        <v>122</v>
+      </c>
       <c r="F149" s="10"/>
       <c r="G149" s="10"/>
-      <c r="H149" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" ht="24.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="150" spans="1:7" ht="36.75" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B150" s="10" t="s">
-        <v>352</v>
-      </c>
-      <c r="C150" s="32" t="s">
-        <v>399</v>
+        <v>340</v>
+      </c>
+      <c r="C150" s="31" t="s">
+        <v>345</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E150" s="10"/>
+        <v>189</v>
+      </c>
+      <c r="E150" s="23" t="s">
+        <v>122</v>
+      </c>
       <c r="F150" s="10"/>
       <c r="G150" s="10"/>
-      <c r="H150" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" ht="24.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="C151" s="32" t="s">
-        <v>400</v>
+        <v>348</v>
+      </c>
+      <c r="C151" s="31" t="s">
+        <v>357</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E151" s="2"/>
+        <v>189</v>
+      </c>
+      <c r="E151" s="23" t="s">
+        <v>122</v>
+      </c>
       <c r="F151" s="2"/>
       <c r="G151" s="2"/>
-      <c r="H151" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="152" spans="1:7" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B152" s="10" t="s">
-        <v>354</v>
-      </c>
-      <c r="C152" s="32" t="s">
-        <v>405</v>
+        <v>349</v>
+      </c>
+      <c r="C152" s="31" t="s">
+        <v>401</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E152" s="10"/>
+        <v>189</v>
+      </c>
+      <c r="E152" s="23" t="s">
+        <v>122</v>
+      </c>
       <c r="F152" s="10"/>
       <c r="G152" s="10"/>
-      <c r="H152" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="153" spans="1:7" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B153" s="10" t="s">
-        <v>355</v>
-      </c>
-      <c r="C153" s="32" t="s">
-        <v>401</v>
+        <v>350</v>
+      </c>
+      <c r="C153" s="31" t="s">
+        <v>397</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E153" s="10"/>
+        <v>189</v>
+      </c>
+      <c r="E153" s="23" t="s">
+        <v>122</v>
+      </c>
       <c r="F153" s="10"/>
       <c r="G153" s="10"/>
-      <c r="H153" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" ht="24.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="154" spans="1:7" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B154" s="10" t="s">
-        <v>356</v>
-      </c>
-      <c r="C154" s="32" t="s">
-        <v>360</v>
+      <c r="B154" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="C154" s="31" t="s">
+        <v>398</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E154" s="10"/>
-      <c r="F154" s="10"/>
-      <c r="G154" s="10"/>
-      <c r="H154" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" ht="24.6" x14ac:dyDescent="0.3">
+        <v>189</v>
+      </c>
+      <c r="E154" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="F154" s="2"/>
+      <c r="G154" s="2"/>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B155" s="10" t="s">
-        <v>357</v>
-      </c>
-      <c r="C155" s="32" t="s">
-        <v>361</v>
+        <v>352</v>
+      </c>
+      <c r="C155" s="31" t="s">
+        <v>403</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E155" s="10"/>
+        <v>189</v>
+      </c>
+      <c r="E155" s="23" t="s">
+        <v>122</v>
+      </c>
       <c r="F155" s="10"/>
       <c r="G155" s="10"/>
-      <c r="H155" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" ht="24.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B156" s="10" t="s">
-        <v>358</v>
-      </c>
-      <c r="C156" s="32" t="s">
-        <v>362</v>
+        <v>353</v>
+      </c>
+      <c r="C156" s="31" t="s">
+        <v>399</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E156" s="10"/>
+        <v>189</v>
+      </c>
+      <c r="E156" s="23" t="s">
+        <v>122</v>
+      </c>
       <c r="F156" s="10"/>
       <c r="G156" s="10"/>
-      <c r="H156" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="157" spans="1:7" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B157" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C157" s="42" t="s">
-        <v>406</v>
+        <v>354</v>
+      </c>
+      <c r="C157" s="31" t="s">
+        <v>358</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E157" s="10"/>
+        <v>189</v>
+      </c>
+      <c r="E157" s="23" t="s">
+        <v>122</v>
+      </c>
       <c r="F157" s="10"/>
       <c r="G157" s="10"/>
-      <c r="H157" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="158" spans="1:7" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B158" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C158" s="42" t="s">
-        <v>407</v>
+        <v>355</v>
+      </c>
+      <c r="C158" s="31" t="s">
+        <v>359</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E158" s="10"/>
+        <v>189</v>
+      </c>
+      <c r="E158" s="23" t="s">
+        <v>122</v>
+      </c>
       <c r="F158" s="10"/>
       <c r="G158" s="10"/>
-      <c r="H158" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="159" spans="1:7" ht="36.75" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B159" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C159" s="42" t="s">
-        <v>408</v>
+        <v>356</v>
+      </c>
+      <c r="C159" s="31" t="s">
+        <v>360</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E159" s="10"/>
+        <v>189</v>
+      </c>
+      <c r="E159" s="23" t="s">
+        <v>122</v>
+      </c>
       <c r="F159" s="10"/>
       <c r="G159" s="10"/>
-      <c r="H159" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B160" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C160" s="42" t="s">
-        <v>409</v>
+        <v>27</v>
+      </c>
+      <c r="C160" s="41" t="s">
+        <v>404</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E160" s="10"/>
+        <v>189</v>
+      </c>
+      <c r="E160" s="23" t="s">
+        <v>122</v>
+      </c>
       <c r="F160" s="10"/>
       <c r="G160" s="10"/>
-      <c r="H160" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B161" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C161" s="42" t="s">
-        <v>410</v>
+        <v>28</v>
+      </c>
+      <c r="C161" s="41" t="s">
+        <v>405</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E161" s="10"/>
+        <v>189</v>
+      </c>
+      <c r="E161" s="23" t="s">
+        <v>122</v>
+      </c>
       <c r="F161" s="10"/>
       <c r="G161" s="10"/>
-      <c r="H161" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B162" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="C162" s="42" t="s">
-        <v>411</v>
+        <v>29</v>
+      </c>
+      <c r="C162" s="41" t="s">
+        <v>406</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E162" s="10"/>
+        <v>189</v>
+      </c>
+      <c r="E162" s="23" t="s">
+        <v>122</v>
+      </c>
       <c r="F162" s="10"/>
       <c r="G162" s="10"/>
-      <c r="H162" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B163" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C163" s="42" t="s">
-        <v>412</v>
+        <v>30</v>
+      </c>
+      <c r="C163" s="41" t="s">
+        <v>407</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E163" s="10"/>
+        <v>189</v>
+      </c>
+      <c r="E163" s="23" t="s">
+        <v>122</v>
+      </c>
       <c r="F163" s="10"/>
       <c r="G163" s="10"/>
-      <c r="H163" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B164" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="C164" s="42" t="s">
-        <v>413</v>
+        <v>60</v>
+      </c>
+      <c r="C164" s="41" t="s">
+        <v>408</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E164" s="10"/>
+        <v>189</v>
+      </c>
+      <c r="E164" s="23" t="s">
+        <v>122</v>
+      </c>
       <c r="F164" s="10"/>
       <c r="G164" s="10"/>
-      <c r="H164" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B165" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C165" s="42" t="s">
-        <v>414</v>
+        <v>61</v>
+      </c>
+      <c r="C165" s="41" t="s">
+        <v>409</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E165" s="10"/>
+        <v>189</v>
+      </c>
+      <c r="E165" s="23" t="s">
+        <v>122</v>
+      </c>
       <c r="F165" s="10"/>
       <c r="G165" s="10"/>
-      <c r="H165" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A166" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="B166" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="C166" s="46" t="s">
-        <v>415</v>
-      </c>
-      <c r="D166" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="E166" s="30"/>
-      <c r="F166" s="30"/>
-      <c r="G166" s="30"/>
-      <c r="H166" s="31" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="B167" s="14" t="s">
-        <v>289</v>
-      </c>
-      <c r="C167" s="45" t="s">
-        <v>319</v>
-      </c>
-      <c r="D167" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="E167" s="14"/>
-      <c r="F167" s="14"/>
-      <c r="G167" s="14"/>
-      <c r="H167" s="27" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8" ht="24.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A166" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B166" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C166" s="41" t="s">
+        <v>410</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E166" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="F166" s="10"/>
+      <c r="G166" s="10"/>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A167" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B167" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C167" s="41" t="s">
+        <v>411</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E167" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="F167" s="10"/>
+      <c r="G167" s="10"/>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B168" s="10" t="s">
-        <v>290</v>
-      </c>
-      <c r="C168" s="32" t="s">
-        <v>381</v>
+        <v>64</v>
+      </c>
+      <c r="C168" s="41" t="s">
+        <v>412</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E168" s="10"/>
+        <v>189</v>
+      </c>
+      <c r="E168" s="23" t="s">
+        <v>122</v>
+      </c>
       <c r="F168" s="10"/>
       <c r="G168" s="10"/>
-      <c r="H168" s="26" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8" ht="24.6" x14ac:dyDescent="0.3">
-      <c r="A169" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B169" s="10" t="s">
-        <v>291</v>
-      </c>
-      <c r="C169" s="32" t="s">
-        <v>320</v>
-      </c>
-      <c r="D169" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E169" s="10"/>
-      <c r="F169" s="10"/>
-      <c r="G169" s="10"/>
-      <c r="H169" s="26" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A170" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B170" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="C170" s="32" t="s">
-        <v>321</v>
-      </c>
-      <c r="D170" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E170" s="2"/>
-      <c r="F170" s="2"/>
-      <c r="G170" s="2"/>
-      <c r="H170" s="26" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="169" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A169" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B169" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="C169" s="45" t="s">
+        <v>413</v>
+      </c>
+      <c r="D169" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="E169" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="F169" s="29"/>
+      <c r="G169" s="29"/>
+    </row>
+    <row r="170" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B170" s="14" t="s">
+        <v>287</v>
+      </c>
+      <c r="C170" s="44" t="s">
+        <v>317</v>
+      </c>
+      <c r="D170" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="E170" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="F170" s="14"/>
+      <c r="G170" s="14"/>
+    </row>
+    <row r="171" spans="1:7" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B171" s="10" t="s">
-        <v>293</v>
-      </c>
-      <c r="C171" s="32" t="s">
-        <v>322</v>
+        <v>288</v>
+      </c>
+      <c r="C171" s="31" t="s">
+        <v>379</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E171" s="10"/>
+        <v>189</v>
+      </c>
+      <c r="E171" s="25" t="s">
+        <v>121</v>
+      </c>
       <c r="F171" s="10"/>
       <c r="G171" s="10"/>
-      <c r="H171" s="26" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="172" spans="1:7" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B172" s="10" t="s">
-        <v>294</v>
-      </c>
-      <c r="C172" s="32" t="s">
-        <v>323</v>
+        <v>289</v>
+      </c>
+      <c r="C172" s="31" t="s">
+        <v>318</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E172" s="10"/>
+        <v>189</v>
+      </c>
+      <c r="E172" s="25" t="s">
+        <v>121</v>
+      </c>
       <c r="F172" s="10"/>
       <c r="G172" s="10"/>
-      <c r="H172" s="26" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="C173" s="32" t="s">
-        <v>382</v>
+        <v>290</v>
+      </c>
+      <c r="C173" s="31" t="s">
+        <v>319</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E173" s="2"/>
+        <v>189</v>
+      </c>
+      <c r="E173" s="25" t="s">
+        <v>121</v>
+      </c>
       <c r="F173" s="2"/>
       <c r="G173" s="2"/>
-      <c r="H173" s="26" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8" ht="24.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B174" s="10" t="s">
-        <v>364</v>
-      </c>
-      <c r="C174" s="32" t="s">
-        <v>383</v>
+        <v>291</v>
+      </c>
+      <c r="C174" s="31" t="s">
+        <v>320</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E174" s="10"/>
+        <v>189</v>
+      </c>
+      <c r="E174" s="25" t="s">
+        <v>121</v>
+      </c>
       <c r="F174" s="10"/>
       <c r="G174" s="10"/>
-      <c r="H174" s="26" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8" ht="24.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B175" s="10" t="s">
-        <v>365</v>
-      </c>
-      <c r="C175" s="32" t="s">
-        <v>385</v>
+        <v>292</v>
+      </c>
+      <c r="C175" s="31" t="s">
+        <v>321</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E175" s="10"/>
+        <v>189</v>
+      </c>
+      <c r="E175" s="25" t="s">
+        <v>121</v>
+      </c>
       <c r="F175" s="10"/>
       <c r="G175" s="10"/>
-      <c r="H175" s="26" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8" ht="24.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="C176" s="32" t="s">
-        <v>384</v>
+        <v>361</v>
+      </c>
+      <c r="C176" s="31" t="s">
+        <v>380</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E176" s="2"/>
+        <v>189</v>
+      </c>
+      <c r="E176" s="25" t="s">
+        <v>121</v>
+      </c>
       <c r="F176" s="2"/>
       <c r="G176" s="2"/>
-      <c r="H176" s="26" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="177" spans="1:7" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B177" s="10" t="s">
-        <v>367</v>
-      </c>
-      <c r="C177" s="32" t="s">
-        <v>393</v>
+        <v>362</v>
+      </c>
+      <c r="C177" s="31" t="s">
+        <v>381</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E177" s="10"/>
+        <v>189</v>
+      </c>
+      <c r="E177" s="25" t="s">
+        <v>121</v>
+      </c>
       <c r="F177" s="10"/>
       <c r="G177" s="10"/>
-      <c r="H177" s="26" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="178" spans="1:7" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B178" s="10" t="s">
-        <v>368</v>
-      </c>
-      <c r="C178" s="32" t="s">
-        <v>386</v>
+        <v>363</v>
+      </c>
+      <c r="C178" s="31" t="s">
+        <v>383</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E178" s="10"/>
+        <v>189</v>
+      </c>
+      <c r="E178" s="25" t="s">
+        <v>121</v>
+      </c>
       <c r="F178" s="10"/>
       <c r="G178" s="10"/>
-      <c r="H178" s="26" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="179" spans="1:7" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B179" s="10" t="s">
-        <v>369</v>
-      </c>
-      <c r="C179" s="32" t="s">
-        <v>387</v>
+      <c r="B179" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C179" s="31" t="s">
+        <v>382</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E179" s="10"/>
-      <c r="F179" s="10"/>
-      <c r="G179" s="10"/>
-      <c r="H179" s="26" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>189</v>
+      </c>
+      <c r="E179" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="F179" s="2"/>
+      <c r="G179" s="2"/>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B180" s="10" t="s">
-        <v>370</v>
-      </c>
-      <c r="C180" s="32" t="s">
-        <v>388</v>
+        <v>365</v>
+      </c>
+      <c r="C180" s="31" t="s">
+        <v>391</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E180" s="10"/>
+        <v>189</v>
+      </c>
+      <c r="E180" s="25" t="s">
+        <v>121</v>
+      </c>
       <c r="F180" s="10"/>
       <c r="G180" s="10"/>
-      <c r="H180" s="26" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="181" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B181" s="10" t="s">
-        <v>371</v>
-      </c>
-      <c r="C181" s="32" t="s">
-        <v>347</v>
+        <v>366</v>
+      </c>
+      <c r="C181" s="31" t="s">
+        <v>384</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E181" s="10"/>
+        <v>189</v>
+      </c>
+      <c r="E181" s="25" t="s">
+        <v>121</v>
+      </c>
       <c r="F181" s="10"/>
       <c r="G181" s="10"/>
-      <c r="H181" s="26" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="182" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B182" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="C182" s="32" t="s">
-        <v>389</v>
+      <c r="B182" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="C182" s="31" t="s">
+        <v>385</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E182" s="2"/>
-      <c r="F182" s="2"/>
-      <c r="G182" s="2"/>
-      <c r="H182" s="26" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8" ht="24.6" x14ac:dyDescent="0.3">
+        <v>189</v>
+      </c>
+      <c r="E182" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="F182" s="10"/>
+      <c r="G182" s="10"/>
+    </row>
+    <row r="183" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B183" s="10" t="s">
-        <v>373</v>
-      </c>
-      <c r="C183" s="32" t="s">
-        <v>397</v>
+        <v>368</v>
+      </c>
+      <c r="C183" s="31" t="s">
+        <v>386</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E183" s="10"/>
+        <v>189</v>
+      </c>
+      <c r="E183" s="25" t="s">
+        <v>121</v>
+      </c>
       <c r="F183" s="10"/>
       <c r="G183" s="10"/>
-      <c r="H183" s="26" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8" ht="24.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="184" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B184" s="10" t="s">
-        <v>374</v>
-      </c>
-      <c r="C184" s="32" t="s">
-        <v>398</v>
+        <v>369</v>
+      </c>
+      <c r="C184" s="31" t="s">
+        <v>345</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E184" s="10"/>
+        <v>189</v>
+      </c>
+      <c r="E184" s="25" t="s">
+        <v>121</v>
+      </c>
       <c r="F184" s="10"/>
       <c r="G184" s="10"/>
-      <c r="H184" s="26" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8" ht="24.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="C185" s="32" t="s">
-        <v>396</v>
+        <v>370</v>
+      </c>
+      <c r="C185" s="31" t="s">
+        <v>387</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E185" s="2"/>
+        <v>189</v>
+      </c>
+      <c r="E185" s="25" t="s">
+        <v>121</v>
+      </c>
       <c r="F185" s="2"/>
       <c r="G185" s="2"/>
-      <c r="H185" s="26" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="186" spans="1:7" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B186" s="10" t="s">
-        <v>376</v>
-      </c>
-      <c r="C186" s="32" t="s">
+        <v>371</v>
+      </c>
+      <c r="C186" s="31" t="s">
         <v>395</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E186" s="10"/>
+        <v>189</v>
+      </c>
+      <c r="E186" s="25" t="s">
+        <v>121</v>
+      </c>
       <c r="F186" s="10"/>
       <c r="G186" s="10"/>
-      <c r="H186" s="26" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8" ht="24.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="187" spans="1:7" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B187" s="10" t="s">
-        <v>377</v>
-      </c>
-      <c r="C187" s="32" t="s">
-        <v>394</v>
+        <v>372</v>
+      </c>
+      <c r="C187" s="31" t="s">
+        <v>396</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E187" s="10"/>
+        <v>189</v>
+      </c>
+      <c r="E187" s="25" t="s">
+        <v>121</v>
+      </c>
       <c r="F187" s="10"/>
       <c r="G187" s="10"/>
-      <c r="H187" s="26" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="188" spans="1:7" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B188" s="10" t="s">
-        <v>378</v>
-      </c>
-      <c r="C188" s="32" t="s">
-        <v>390</v>
+      <c r="B188" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="C188" s="31" t="s">
+        <v>394</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E188" s="10"/>
-      <c r="F188" s="10"/>
-      <c r="G188" s="10"/>
-      <c r="H188" s="26" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8" ht="36.6" x14ac:dyDescent="0.3">
+        <v>189</v>
+      </c>
+      <c r="E188" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="F188" s="2"/>
+      <c r="G188" s="2"/>
+    </row>
+    <row r="189" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B189" s="10" t="s">
-        <v>379</v>
-      </c>
-      <c r="C189" s="32" t="s">
-        <v>391</v>
+        <v>374</v>
+      </c>
+      <c r="C189" s="31" t="s">
+        <v>393</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E189" s="10"/>
+        <v>189</v>
+      </c>
+      <c r="E189" s="25" t="s">
+        <v>121</v>
+      </c>
       <c r="F189" s="10"/>
       <c r="G189" s="10"/>
-      <c r="H189" s="26" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8" ht="36.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="190" spans="1:7" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B190" s="10" t="s">
-        <v>380</v>
-      </c>
-      <c r="C190" s="32" t="s">
+        <v>375</v>
+      </c>
+      <c r="C190" s="31" t="s">
         <v>392</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E190" s="10"/>
+        <v>189</v>
+      </c>
+      <c r="E190" s="25" t="s">
+        <v>121</v>
+      </c>
       <c r="F190" s="10"/>
       <c r="G190" s="10"/>
-      <c r="H190" s="26" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="191" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B191" s="10" t="s">
-        <v>324</v>
-      </c>
-      <c r="C191" s="42" t="s">
-        <v>416</v>
+        <v>376</v>
+      </c>
+      <c r="C191" s="31" t="s">
+        <v>388</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E191" s="10"/>
+        <v>189</v>
+      </c>
+      <c r="E191" s="25" t="s">
+        <v>121</v>
+      </c>
       <c r="F191" s="10"/>
       <c r="G191" s="10"/>
-      <c r="H191" s="26" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="192" spans="1:7" ht="36.75" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B192" s="10" t="s">
-        <v>325</v>
-      </c>
-      <c r="C192" s="42" t="s">
-        <v>417</v>
+        <v>377</v>
+      </c>
+      <c r="C192" s="31" t="s">
+        <v>389</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E192" s="10"/>
+        <v>189</v>
+      </c>
+      <c r="E192" s="25" t="s">
+        <v>121</v>
+      </c>
       <c r="F192" s="10"/>
       <c r="G192" s="10"/>
-      <c r="H192" s="26" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="193" spans="1:7" ht="36.75" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B193" s="10" t="s">
-        <v>326</v>
-      </c>
-      <c r="C193" s="42" t="s">
-        <v>418</v>
+        <v>378</v>
+      </c>
+      <c r="C193" s="31" t="s">
+        <v>390</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E193" s="10"/>
+        <v>189</v>
+      </c>
+      <c r="E193" s="25" t="s">
+        <v>121</v>
+      </c>
       <c r="F193" s="10"/>
       <c r="G193" s="10"/>
-      <c r="H193" s="26" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B194" s="10" t="s">
-        <v>327</v>
-      </c>
-      <c r="C194" s="42" t="s">
-        <v>419</v>
+        <v>322</v>
+      </c>
+      <c r="C194" s="41" t="s">
+        <v>414</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E194" s="10"/>
+        <v>189</v>
+      </c>
+      <c r="E194" s="25" t="s">
+        <v>121</v>
+      </c>
       <c r="F194" s="10"/>
       <c r="G194" s="10"/>
-      <c r="H194" s="26" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B195" s="10" t="s">
-        <v>328</v>
-      </c>
-      <c r="C195" s="42" t="s">
-        <v>420</v>
+        <v>323</v>
+      </c>
+      <c r="C195" s="41" t="s">
+        <v>415</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E195" s="10"/>
+        <v>189</v>
+      </c>
+      <c r="E195" s="25" t="s">
+        <v>121</v>
+      </c>
       <c r="F195" s="10"/>
       <c r="G195" s="10"/>
-      <c r="H195" s="26" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B196" s="10" t="s">
-        <v>329</v>
-      </c>
-      <c r="C196" s="42" t="s">
-        <v>421</v>
+        <v>324</v>
+      </c>
+      <c r="C196" s="41" t="s">
+        <v>416</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E196" s="10"/>
+        <v>189</v>
+      </c>
+      <c r="E196" s="25" t="s">
+        <v>121</v>
+      </c>
       <c r="F196" s="10"/>
       <c r="G196" s="10"/>
-      <c r="H196" s="26" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B197" s="10" t="s">
-        <v>330</v>
-      </c>
-      <c r="C197" s="42" t="s">
-        <v>422</v>
+        <v>325</v>
+      </c>
+      <c r="C197" s="41" t="s">
+        <v>417</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E197" s="10"/>
+        <v>189</v>
+      </c>
+      <c r="E197" s="25" t="s">
+        <v>121</v>
+      </c>
       <c r="F197" s="10"/>
       <c r="G197" s="10"/>
-      <c r="H197" s="26" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B198" s="10" t="s">
-        <v>331</v>
-      </c>
-      <c r="C198" s="42" t="s">
-        <v>423</v>
+        <v>326</v>
+      </c>
+      <c r="C198" s="41" t="s">
+        <v>418</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E198" s="10"/>
+        <v>189</v>
+      </c>
+      <c r="E198" s="25" t="s">
+        <v>121</v>
+      </c>
       <c r="F198" s="10"/>
       <c r="G198" s="10"/>
-      <c r="H198" s="26" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B199" s="10" t="s">
-        <v>332</v>
-      </c>
-      <c r="C199" s="42" t="s">
-        <v>424</v>
+        <v>327</v>
+      </c>
+      <c r="C199" s="41" t="s">
+        <v>419</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E199" s="10"/>
+        <v>189</v>
+      </c>
+      <c r="E199" s="25" t="s">
+        <v>121</v>
+      </c>
       <c r="F199" s="10"/>
       <c r="G199" s="10"/>
-      <c r="H199" s="26" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A200" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="B200" s="30" t="s">
-        <v>333</v>
-      </c>
-      <c r="C200" s="42" t="s">
-        <v>425</v>
-      </c>
-      <c r="D200" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="E200" s="30"/>
-      <c r="F200" s="30"/>
-      <c r="G200" s="30"/>
-      <c r="H200" s="28" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B201" s="23" t="s">
-        <v>178</v>
-      </c>
-      <c r="C201" s="47" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8" ht="24" x14ac:dyDescent="0.3">
-      <c r="C202" s="48" t="s">
-        <v>192</v>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A200" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B200" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="C200" s="41" t="s">
+        <v>420</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E200" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="F200" s="10"/>
+      <c r="G200" s="10"/>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A201" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B201" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="C201" s="41" t="s">
+        <v>421</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E201" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="F201" s="10"/>
+      <c r="G201" s="10"/>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A202" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B202" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="C202" s="41" t="s">
+        <v>422</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E202" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="F202" s="10"/>
+      <c r="G202" s="10"/>
+    </row>
+    <row r="203" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A203" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B203" s="29" t="s">
+        <v>331</v>
+      </c>
+      <c r="C203" s="41" t="s">
+        <v>423</v>
+      </c>
+      <c r="D203" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="E203" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="F203" s="29"/>
+      <c r="G203" s="29"/>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B204" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="C204" s="46" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" ht="24" x14ac:dyDescent="0.25">
+      <c r="C205" s="47" t="s">
+        <v>190</v>
       </c>
     </row>
   </sheetData>
